--- a/output_raw.xlsx
+++ b/output_raw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="753">
   <si>
     <t>ID</t>
   </si>
@@ -268,12 +268,261 @@
     <t>Case-PR20230602113641325修改点价价格为3379</t>
   </si>
   <si>
+    <t>Case-合同无法签章</t>
+  </si>
+  <si>
+    <t>Case-由于客户签署组问题导致LDC无法签章，请退回“待审核”，重新发起</t>
+  </si>
+  <si>
+    <t>Case-三河湘大密码过期，重置密码后收不到验证码</t>
+  </si>
+  <si>
+    <t>Case-嘉合晟客户于5/31点价分配合同号错误 现需要撤回再重新操作点价</t>
+  </si>
+  <si>
+    <t>Case-PR202306011148099154作废</t>
+  </si>
+  <si>
+    <t>Case-2205212-001已开单200吨，未限制全量变更</t>
+  </si>
+  <si>
+    <t>Case-TJTJSBMS221890-001拆分生效后数量未同步至LKG</t>
+  </si>
+  <si>
+    <t>Case-合同无法签章“易企签请求处理中，请刷新后再试”</t>
+  </si>
+  <si>
+    <t>Case-221518协议已完成，恢复至生效状态</t>
+  </si>
+  <si>
+    <t>Case-已签章合同未跳转到待回签界面，且操作记录中无签章记录</t>
+  </si>
+  <si>
+    <t>Case-山西大象合同都已完成，但合同状态仍拆分中，请调整为生效中</t>
+  </si>
+  <si>
+    <t>Case-合同状态由待签章退回到待审核</t>
+  </si>
+  <si>
+    <t>Case-作价协议税率改为专票9%</t>
+  </si>
+  <si>
+    <t>Case-TJIBSBOP2300475修改合同基差显示客户状态异常</t>
+  </si>
+  <si>
+    <t>Case-头寸处理单据状态从已成交调回未成交</t>
+  </si>
+  <si>
+    <t>Case-豆油采购TJIBSBOP2202335合同定价</t>
+  </si>
+  <si>
+    <t>Case-青岛天佑祥瑞商贸有限公司更新初始管理员信息</t>
+  </si>
+  <si>
+    <t>Case-LDC无法签章，请帮忙退回到待审核状态</t>
+  </si>
+  <si>
+    <t>Case-TJIBSBOS2301645合同中的“点价完毕”按钮不见了。</t>
+  </si>
+  <si>
+    <t>Case-宁波泽高基差暂定价合同TJTJSBMS221939-016，请在合同单价中加上蛋白差210元。</t>
+  </si>
+  <si>
+    <t>Case-使用WS客户的合同，LDC无法正常签章</t>
+  </si>
+  <si>
+    <t>Case-进入“已完成”的TT退回“正本”状态</t>
+  </si>
+  <si>
+    <t>Case-修改 TJIBSBOP2300389合同货物名称为一级大豆油RZ</t>
+  </si>
+  <si>
+    <t>Case-肇庆广海TJTJSBMS221809合同都已正本，但合同状态仍拆分中，影响后续操作，请调整到生效中状态。</t>
+  </si>
+  <si>
+    <t>Case-四会澳华在已开通易企签情况下不能线上签署</t>
+  </si>
+  <si>
+    <t>Case-TJIBSBMS2300376正本状态，合同状态拆分中</t>
+  </si>
+  <si>
+    <t>Case-框架协议即将到期客户，NAV系统未提前通知</t>
+  </si>
+  <si>
+    <t>Case-厦门西海油脂13860105217登录时显示被禁用</t>
+  </si>
+  <si>
+    <t>Case-广东华星油脂新增客户后仍不可见</t>
+  </si>
+  <si>
+    <t>Case-北京恒盛顺达登录提示几帐号过期</t>
+  </si>
+  <si>
+    <t>Case-山东隆瑞TJTJSBMS225167-001合同已点价，无定价完成按钮，请将此合同调整为一口价合同，以便后续操作。</t>
+  </si>
+  <si>
+    <t>Case-SC202211251351003350-004  审批记录里面缺审批人</t>
+  </si>
+  <si>
+    <t>Case-豆粕采购全部转月不涉及履约保证金描述，多带出一个序号</t>
+  </si>
+  <si>
+    <t>Case-航海家系统PR202305221510039661上海浦耀此条点价信息 申请删除</t>
+  </si>
+  <si>
+    <t>Case-PR202305221139039101此条点价客户需修改点价主体，，申请删除此点价记录</t>
+  </si>
+  <si>
+    <t>Case-天津大象TJTJSBMS225083-001合同都已正本，但合同状态仍为拆分中，无法进行点价，请将合同调到生效中状态。</t>
+  </si>
+  <si>
+    <t>Case-出具销售合同，通知条款中的联系人名、手机号重复显示</t>
+  </si>
+  <si>
+    <t>Case-TR20230519163732273 转月后基差价格有误，需调整基差价格</t>
+  </si>
+  <si>
+    <t>Case-站内信的链接进待挂单，豆油的单子会显示成豆粕</t>
+  </si>
+  <si>
+    <t>Case-合规合同没同步到LKG</t>
+  </si>
+  <si>
+    <t>Case-保定玖兴224410-001合同已完成，但合同状态还是拆分中，请将合同状态调整为生效中，以能进行后续操作</t>
+  </si>
+  <si>
+    <t>Case-转月协议出具界面基差与TT详情不一致</t>
+  </si>
+  <si>
+    <t>Case-TJIBSBMS2300104  子合同已全部合规，系统显示合同状态未生效</t>
+  </si>
+  <si>
+    <t>Case-修改点价时间</t>
+  </si>
+  <si>
+    <t>Case-PR202305181150021650此条点价数量有误  申请删除</t>
+  </si>
+  <si>
+    <t>Case-已经合规的合同退回到待确认合规PC202305111125191393-002，PC202305111125191393-001，请排查</t>
+  </si>
+  <si>
+    <t>Case-鹤山市粤凰饲料有限公司更新初始管理员信息</t>
+  </si>
+  <si>
+    <t>Case-中粮TJIBSBOS2300263定价TT作废转线下</t>
+  </si>
+  <si>
+    <t>Case-如下合同已正本或完成，但合同还是拆分中，请调整到生效中状态。</t>
+  </si>
+  <si>
+    <t>Case- PR202305171509446074此条点价申请删除</t>
+  </si>
+  <si>
+    <t>Case-恢复5月16日关闭合同的请状态</t>
+  </si>
+  <si>
+    <t>Case-TJDGSBMS223033此合同正在执行的，航海家显示已经关闭</t>
+  </si>
+  <si>
+    <t>Case-基差合同还有未定价量，合同状态变成已关闭</t>
+  </si>
+  <si>
+    <t>Case-分配待审核-批量审核通过按钮点没反映</t>
+  </si>
+  <si>
+    <t>Case-汇沐耘哥伦布系统无法收到验证码</t>
+  </si>
+  <si>
+    <t>Case-客户使用WS，待确认合规界面无法预览合同</t>
+  </si>
+  <si>
+    <t>Case-合同状态错误（状态跳转延迟）</t>
+  </si>
+  <si>
+    <t>Case-因客户更名，系统无法自行变更，请将系统合同变更为新的公司名称</t>
+  </si>
+  <si>
+    <t>Case-应县象丰221899-003合同都已正本，但合同状态仍为拆分中，无法进行后续操作</t>
+  </si>
+  <si>
+    <t>Case-合同备注自动生成是不对的</t>
+  </si>
+  <si>
+    <t>Case-成都绿科结构化定价信息修改</t>
+  </si>
+  <si>
+    <t>Case-TJDGSBMS222588-001  已合规显示拆分烦请调整</t>
+  </si>
+  <si>
+    <t>Case-包头北辰航海家合同已生效，LKG无此合同</t>
+  </si>
+  <si>
+    <t>Case-TJIB SC202305051210167592-002/TJIBSBOS2301379确认合规界面报错</t>
+  </si>
+  <si>
+    <t>Case-豆粕投诉折价 张家港 TJIBSBMS2205671--正大康地（开封）生物科技有限公司投诉折价调整</t>
+  </si>
+  <si>
+    <t>Case-翱兰（上海）商贸有限公司更新初始管理员信息</t>
+  </si>
+  <si>
+    <t>Case-郴州湘大骆驼饲料有限公司更新初始管理员信息</t>
+  </si>
+  <si>
+    <t>Case-肇庆市和兴贸易有限公司更新初始管理员信息</t>
+  </si>
+  <si>
+    <t>Case-申请航海家系统对应工厂增加付款代码</t>
+  </si>
+  <si>
+    <t>Case-销售TT新录入界面，批量提交按钮不好用</t>
+  </si>
+  <si>
+    <t>Case-PR202305090929046255挂单重复，撤回至未生效</t>
+  </si>
+  <si>
+    <t>Case-交期大于1年的合同待C签却没进入C签</t>
+  </si>
+  <si>
+    <t>Case-宁波泽高转月成交价格及合同信息修复</t>
+  </si>
+  <si>
+    <t>Case-现代牧业航海家和LKG合同数量不一致</t>
+  </si>
+  <si>
+    <t>Case-删除航海家系统中TJIB一级大豆油销售合同 TJIBSBOS2301379</t>
+  </si>
+  <si>
+    <t>Case-LOA审批规则：TT价格字段中有“其他补贴”应进入A签，但航海家显示免签</t>
+  </si>
+  <si>
+    <t>Case-C签无审批记录，是否真的经过了C签？</t>
+  </si>
+  <si>
+    <t>Case-客户在哥伦布端签章的时候，发送验证码的手机号和姓名均为LDC人员</t>
+  </si>
+  <si>
+    <t>Case-航海家合同一口价，LKG定价方式没变</t>
+  </si>
+  <si>
+    <t>Case-TR202305081133521296、因成交价格输入错误申请未成交，现已分配</t>
+  </si>
+  <si>
+    <t>Case-客户点击签章，系统报错</t>
+  </si>
+  <si>
+    <t>Case-增加付款条件代码：Interco 999 days</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
     <t>Middle</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>LDC确认中</t>
   </si>
   <si>
@@ -361,6 +610,45 @@
     <t>马晴</t>
   </si>
   <si>
+    <t>裴黎颂;刘晓彤</t>
+  </si>
+  <si>
+    <t>a012</t>
+  </si>
+  <si>
+    <t>肖韵</t>
+  </si>
+  <si>
+    <t>王建辉</t>
+  </si>
+  <si>
+    <t>Crystal.Lin</t>
+  </si>
+  <si>
+    <t>刘晓彤;陈开</t>
+  </si>
+  <si>
+    <t>Chiling.S;刘晓彤</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>FN技术_胡欣;运维支持_胡培军</t>
+  </si>
+  <si>
+    <t>运维支持_胡培军;刘晓彤</t>
+  </si>
+  <si>
+    <t>运维支持_胡培军;沈羽</t>
+  </si>
+  <si>
+    <t>运维支持_胡培军;马晴</t>
+  </si>
+  <si>
+    <t>运维支持_胡培军;邓铭_LDC</t>
+  </si>
+  <si>
     <t>生产Case &gt; 运维诉求 &gt; 数据处理 &gt; 操作问题 &gt; 操作记录排查</t>
   </si>
   <si>
@@ -394,9 +682,21 @@
     <t>生产Case &gt; 转需求</t>
   </si>
   <si>
+    <t>生产Case &gt; BUG &gt; 复杂BUG</t>
+  </si>
+  <si>
+    <t>生产Case &gt; 运维诉求 &gt; 数据处理</t>
+  </si>
+  <si>
+    <t>生产Case &gt; 运维诉求 &gt; 数据处理 &gt; 操作问题</t>
+  </si>
+  <si>
     <t>生产Case</t>
   </si>
   <si>
+    <t>生产Case &gt; 运维诉求 &gt; 数据处理 &gt; 系统网络问题</t>
+  </si>
+  <si>
     <t>Yuki</t>
   </si>
   <si>
@@ -607,6 +907,258 @@
     <t>2023-06-02 14:58:32</t>
   </si>
   <si>
+    <t>2023-06-02 14:11:56</t>
+  </si>
+  <si>
+    <t>2023-06-02 13:32:37</t>
+  </si>
+  <si>
+    <t>2023-06-02 10:04:50</t>
+  </si>
+  <si>
+    <t>2023-06-02 09:18:29</t>
+  </si>
+  <si>
+    <t>2023-06-01 15:46:59</t>
+  </si>
+  <si>
+    <t>2023-06-01 13:39:45</t>
+  </si>
+  <si>
+    <t>2023-06-01 11:26:24</t>
+  </si>
+  <si>
+    <t>2023-05-31 18:27:33</t>
+  </si>
+  <si>
+    <t>2023-05-31 17:00:43</t>
+  </si>
+  <si>
+    <t>2023-05-31 16:26:46</t>
+  </si>
+  <si>
+    <t>2023-05-31 16:18:58</t>
+  </si>
+  <si>
+    <t>2023-05-31 15:58:10</t>
+  </si>
+  <si>
+    <t>2023-05-31 15:27:21</t>
+  </si>
+  <si>
+    <t>2023-05-31 14:29:20</t>
+  </si>
+  <si>
+    <t>2023-05-31 11:19:11</t>
+  </si>
+  <si>
+    <t>2023-05-30 18:06:28</t>
+  </si>
+  <si>
+    <t>2023-05-30 11:22:34</t>
+  </si>
+  <si>
+    <t>2023-05-26 18:13:14</t>
+  </si>
+  <si>
+    <t>2023-05-26 17:11:24</t>
+  </si>
+  <si>
+    <t>2023-05-26 16:19:33</t>
+  </si>
+  <si>
+    <t>2023-05-26 11:12:42</t>
+  </si>
+  <si>
+    <t>2023-05-25 13:49:30</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:11:42</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:50:00</t>
+  </si>
+  <si>
+    <t>2023-05-24 14:09:29</t>
+  </si>
+  <si>
+    <t>2023-05-24 13:06:26</t>
+  </si>
+  <si>
+    <t>2023-05-24 11:14:21</t>
+  </si>
+  <si>
+    <t>2023-05-24 11:12:53</t>
+  </si>
+  <si>
+    <t>2023-05-23 15:32:01</t>
+  </si>
+  <si>
+    <t>2023-05-23 15:29:33</t>
+  </si>
+  <si>
+    <t>2023-05-23 15:01:16</t>
+  </si>
+  <si>
+    <t>2023-05-23 10:15:54</t>
+  </si>
+  <si>
+    <t>2023-05-23 09:25:39</t>
+  </si>
+  <si>
+    <t>2023-05-22 17:38:16</t>
+  </si>
+  <si>
+    <t>2023-05-22 17:10:34</t>
+  </si>
+  <si>
+    <t>2023-05-22 15:41:31</t>
+  </si>
+  <si>
+    <t>2023-05-22 15:26:38</t>
+  </si>
+  <si>
+    <t>2023-05-22 14:15:21</t>
+  </si>
+  <si>
+    <t>2023-05-22 11:43:06</t>
+  </si>
+  <si>
+    <t>2023-05-22 10:30:09</t>
+  </si>
+  <si>
+    <t>2023-05-22 10:27:02</t>
+  </si>
+  <si>
+    <t>2023-05-19 16:33:29</t>
+  </si>
+  <si>
+    <t>2023-05-19 15:00:48</t>
+  </si>
+  <si>
+    <t>2023-05-19 14:12:38</t>
+  </si>
+  <si>
+    <t>2023-05-19 13:53:08</t>
+  </si>
+  <si>
+    <t>2023-05-19 10:49:54</t>
+  </si>
+  <si>
+    <t>2023-05-18 13:32:25</t>
+  </si>
+  <si>
+    <t>2023-05-18 11:26:38</t>
+  </si>
+  <si>
+    <t>2023-05-18 11:08:21</t>
+  </si>
+  <si>
+    <t>2023-05-18 09:53:35</t>
+  </si>
+  <si>
+    <t>2023-05-18 09:13:19</t>
+  </si>
+  <si>
+    <t>2023-05-17 15:31:47</t>
+  </si>
+  <si>
+    <t>2023-05-17 10:58:42</t>
+  </si>
+  <si>
+    <t>2023-05-17 10:23:21</t>
+  </si>
+  <si>
+    <t>2023-05-17 10:02:03</t>
+  </si>
+  <si>
+    <t>2023-05-16 16:06:34</t>
+  </si>
+  <si>
+    <t>2023-05-16 15:30:24</t>
+  </si>
+  <si>
+    <t>2023-05-16 09:15:02</t>
+  </si>
+  <si>
+    <t>2023-05-16 09:06:32</t>
+  </si>
+  <si>
+    <t>2023-05-15 10:53:26</t>
+  </si>
+  <si>
+    <t>2023-05-15 10:36:57</t>
+  </si>
+  <si>
+    <t>2023-05-15 10:29:47</t>
+  </si>
+  <si>
+    <t>2023-05-12 16:59:14</t>
+  </si>
+  <si>
+    <t>2023-05-12 15:39:50</t>
+  </si>
+  <si>
+    <t>2023-05-12 11:33:21</t>
+  </si>
+  <si>
+    <t>2023-05-12 09:58:26</t>
+  </si>
+  <si>
+    <t>2023-05-11 15:32:31</t>
+  </si>
+  <si>
+    <t>2023-05-10 18:17:43</t>
+  </si>
+  <si>
+    <t>2023-05-10 18:15:17</t>
+  </si>
+  <si>
+    <t>2023-05-10 17:58:10</t>
+  </si>
+  <si>
+    <t>2023-05-10 13:47:53</t>
+  </si>
+  <si>
+    <t>2023-05-10 09:19:33</t>
+  </si>
+  <si>
+    <t>2023-05-09 17:14:28</t>
+  </si>
+  <si>
+    <t>2023-05-09 17:09:26</t>
+  </si>
+  <si>
+    <t>2023-05-09 16:32:38</t>
+  </si>
+  <si>
+    <t>2023-05-09 15:52:54</t>
+  </si>
+  <si>
+    <t>2023-05-09 15:32:24</t>
+  </si>
+  <si>
+    <t>2023-05-09 14:30:12</t>
+  </si>
+  <si>
+    <t>2023-05-09 12:09:10</t>
+  </si>
+  <si>
+    <t>2023-05-09 11:35:16</t>
+  </si>
+  <si>
+    <t>2023-05-09 11:03:50</t>
+  </si>
+  <si>
+    <t>2023-05-09 10:11:22</t>
+  </si>
+  <si>
+    <t>2023-05-09 09:50:46</t>
+  </si>
+  <si>
+    <t>2023-05-08 15:36:46</t>
+  </si>
+  <si>
     <t>2023-06-29 12:21:51</t>
   </si>
   <si>
@@ -814,6 +1366,258 @@
     <t>2023-06-13 18:50:52</t>
   </si>
   <si>
+    <t>2023-06-05 14:13:01</t>
+  </si>
+  <si>
+    <t>2023-07-20 10:30:01</t>
+  </si>
+  <si>
+    <t>2023-06-09 10:01:39</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:38:29</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:24:59</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:25:05</t>
+  </si>
+  <si>
+    <t>2023-06-08 15:36:28</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:12:34</t>
+  </si>
+  <si>
+    <t>2023-06-01 16:54:21</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:09</t>
+  </si>
+  <si>
+    <t>2023-06-14 11:55:38</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:12</t>
+  </si>
+  <si>
+    <t>2023-06-01 16:54:47</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:28:13</t>
+  </si>
+  <si>
+    <t>2023-05-31 11:57:12</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:25:09</t>
+  </si>
+  <si>
+    <t>2023-07-25 11:03:11</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:30:33</t>
+  </si>
+  <si>
+    <t>2023-05-29 14:27:23</t>
+  </si>
+  <si>
+    <t>2023-05-29 14:27:04</t>
+  </si>
+  <si>
+    <t>2023-05-29 14:25:31</t>
+  </si>
+  <si>
+    <t>2023-05-25 16:24:41</t>
+  </si>
+  <si>
+    <t>2023-07-20 10:30:19</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:25:46</t>
+  </si>
+  <si>
+    <t>2023-06-13 18:28:18</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:14</t>
+  </si>
+  <si>
+    <t>2023-07-28 14:03:02</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:16</t>
+  </si>
+  <si>
+    <t>2023-05-24 12:07:54</t>
+  </si>
+  <si>
+    <t>2023-05-30 18:34:19</t>
+  </si>
+  <si>
+    <t>2023-06-13 18:28:36</t>
+  </si>
+  <si>
+    <t>2023-05-23 13:33:50</t>
+  </si>
+  <si>
+    <t>2023-05-25 18:04:38</t>
+  </si>
+  <si>
+    <t>2023-06-19 13:54:56</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:52:32</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:55:49</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:25:13</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:17</t>
+  </si>
+  <si>
+    <t>2023-05-25 16:36:50</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:25:50</t>
+  </si>
+  <si>
+    <t>2023-05-29 13:56:18</t>
+  </si>
+  <si>
+    <t>2023-07-28 14:03:15</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:21</t>
+  </si>
+  <si>
+    <t>2023-05-30 18:34:53</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:24</t>
+  </si>
+  <si>
+    <t>2023-05-29 14:50:03</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:25:53</t>
+  </si>
+  <si>
+    <t>2023-06-05 15:15:22</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:52:37</t>
+  </si>
+  <si>
+    <t>2023-05-25 16:39:43</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:26</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:25:56</t>
+  </si>
+  <si>
+    <t>2023-05-25 17:11:18</t>
+  </si>
+  <si>
+    <t>2023-05-25 17:11:30</t>
+  </si>
+  <si>
+    <t>2023-05-25 17:11:42</t>
+  </si>
+  <si>
+    <t>2023-05-25 11:44:38</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:19:57</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:40:27</t>
+  </si>
+  <si>
+    <t>2023-05-29 16:32:43</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:52:43</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:31</t>
+  </si>
+  <si>
+    <t>2023-05-25 17:12:12</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:28:49</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:08:33</t>
+  </si>
+  <si>
+    <t>2023-05-12 17:04:33</t>
+  </si>
+  <si>
+    <t>2023-05-25 17:34:57</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:52:54</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:53:03</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:53:09</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:53:15</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:53:35</t>
+  </si>
+  <si>
+    <t>2023-05-10 16:00:25</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:25:59</t>
+  </si>
+  <si>
+    <t>2023-05-25 17:35:16</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:26:03</t>
+  </si>
+  <si>
+    <t>2023-05-18 17:31:33</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:26:05</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:41:06</t>
+  </si>
+  <si>
+    <t>2023-05-25 17:35:40</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:26:12</t>
+  </si>
+  <si>
+    <t>2023-05-10 16:05:39</t>
+  </si>
+  <si>
+    <t>2023-06-13 17:26:17</t>
+  </si>
+  <si>
+    <t>2023-05-24 10:08:03</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:53:42</t>
+  </si>
+  <si>
     <t>2023-06-28 18:33:16</t>
   </si>
   <si>
@@ -859,6 +1663,96 @@
     <t>2023-06-08 09:19:14</t>
   </si>
   <si>
+    <t>2023-06-08 09:19:05</t>
+  </si>
+  <si>
+    <t>2023-06-01 10:49:44</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:19:26</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:39:53</t>
+  </si>
+  <si>
+    <t>2023-05-31 17:09:08</t>
+  </si>
+  <si>
+    <t>2023-06-06 15:55:14</t>
+  </si>
+  <si>
+    <t>2023-05-29 09:49:22</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:22:21</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:19:30</t>
+  </si>
+  <si>
+    <t>2023-05-23 15:32:29</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:19:38</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:38:07</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:55:55</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:56:01</t>
+  </si>
+  <si>
+    <t>2023-06-05 14:56:05</t>
+  </si>
+  <si>
+    <t>2023-05-17 16:57:33</t>
+  </si>
+  <si>
+    <t>2023-05-17 16:57:26</t>
+  </si>
+  <si>
+    <t>2023-05-17 13:48:04</t>
+  </si>
+  <si>
+    <t>2023-05-15 14:36:57</t>
+  </si>
+  <si>
+    <t>2023-05-15 15:41:28</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:20:02</t>
+  </si>
+  <si>
+    <t>2023-05-15 10:28:13</t>
+  </si>
+  <si>
+    <t>2023-05-16 09:57:42</t>
+  </si>
+  <si>
+    <t>2023-05-15 15:41:07</t>
+  </si>
+  <si>
+    <t>2023-05-15 13:35:43</t>
+  </si>
+  <si>
+    <t>2023-05-10 08:32:05</t>
+  </si>
+  <si>
+    <t>2023-06-08 09:20:06</t>
+  </si>
+  <si>
+    <t>2023-05-15 15:52:08</t>
+  </si>
+  <si>
+    <t>2023-05-19 13:50:44</t>
+  </si>
+  <si>
+    <t>2023-05-09 14:02:48</t>
+  </si>
+  <si>
     <t>LKG接口</t>
   </si>
   <si>
@@ -919,6 +1813,15 @@
     <t>马晴;</t>
   </si>
   <si>
+    <t>肖韵;</t>
+  </si>
+  <si>
+    <t>语淇;</t>
+  </si>
+  <si>
+    <t>Athena;</t>
+  </si>
+  <si>
     <t>2023-06-28 14:52:34</t>
   </si>
   <si>
@@ -1121,6 +2024,255 @@
   </si>
   <si>
     <t>2023-06-02 15:50:34</t>
+  </si>
+  <si>
+    <t>2023-06-02 14:47:52</t>
+  </si>
+  <si>
+    <t>2023-06-02 13:40:12</t>
+  </si>
+  <si>
+    <t>2023-06-02 10:09:34</t>
+  </si>
+  <si>
+    <t>2023-06-02 09:43:17</t>
+  </si>
+  <si>
+    <t>2023-06-01 15:50:17</t>
+  </si>
+  <si>
+    <t>2023-06-01 14:04:16</t>
+  </si>
+  <si>
+    <t>2023-06-01 11:43:05</t>
+  </si>
+  <si>
+    <t>2023-05-31 18:38:03</t>
+  </si>
+  <si>
+    <t>2023-05-31 17:13:55</t>
+  </si>
+  <si>
+    <t>2023-06-01 10:34:27</t>
+  </si>
+  <si>
+    <t>2023-05-31 17:00:59</t>
+  </si>
+  <si>
+    <t>2023-05-31 16:35:22</t>
+  </si>
+  <si>
+    <t>2023-05-31 15:30:28</t>
+  </si>
+  <si>
+    <t>2023-05-31 14:36:39</t>
+  </si>
+  <si>
+    <t>2023-05-31 11:20:54</t>
+  </si>
+  <si>
+    <t>2023-05-31 12:02:57</t>
+  </si>
+  <si>
+    <t>2023-05-30 11:26:30</t>
+  </si>
+  <si>
+    <t>2023-05-29 10:04:09</t>
+  </si>
+  <si>
+    <t>2023-05-29 09:47:47</t>
+  </si>
+  <si>
+    <t>2023-05-26 16:22:01</t>
+  </si>
+  <si>
+    <t>2023-05-26 11:17:42</t>
+  </si>
+  <si>
+    <t>2023-05-25 13:56:25</t>
+  </si>
+  <si>
+    <t>2023-05-25 10:25:15</t>
+  </si>
+  <si>
+    <t>2023-05-25 09:55:08</t>
+  </si>
+  <si>
+    <t>2023-05-24 14:12:57</t>
+  </si>
+  <si>
+    <t>2023-05-24 13:20:15</t>
+  </si>
+  <si>
+    <t>2023-05-24 11:18:34</t>
+  </si>
+  <si>
+    <t>2023-05-24 11:18:05</t>
+  </si>
+  <si>
+    <t>2023-05-23 17:53:29</t>
+  </si>
+  <si>
+    <t>2023-05-23 15:09:53</t>
+  </si>
+  <si>
+    <t>2023-05-23 11:39:14</t>
+  </si>
+  <si>
+    <t>2023-05-23 09:49:01</t>
+  </si>
+  <si>
+    <t>2023-05-22 18:36:50</t>
+  </si>
+  <si>
+    <t>2023-05-23 15:23:35</t>
+  </si>
+  <si>
+    <t>2023-05-22 15:45:30</t>
+  </si>
+  <si>
+    <t>2023-05-22 15:34:40</t>
+  </si>
+  <si>
+    <t>2023-05-22 14:18:43</t>
+  </si>
+  <si>
+    <t>2023-05-22 11:47:23</t>
+  </si>
+  <si>
+    <t>2023-05-22 10:32:48</t>
+  </si>
+  <si>
+    <t>2023-05-22 10:34:46</t>
+  </si>
+  <si>
+    <t>2023-05-19 18:00:56</t>
+  </si>
+  <si>
+    <t>2023-05-19 15:03:41</t>
+  </si>
+  <si>
+    <t>2023-05-19 14:14:39</t>
+  </si>
+  <si>
+    <t>2023-05-19 13:55:36</t>
+  </si>
+  <si>
+    <t>2023-05-19 13:55:13</t>
+  </si>
+  <si>
+    <t>2023-05-18 13:35:05</t>
+  </si>
+  <si>
+    <t>2023-05-18 13:58:05</t>
+  </si>
+  <si>
+    <t>2023-05-18 13:53:52</t>
+  </si>
+  <si>
+    <t>2023-05-18 09:57:17</t>
+  </si>
+  <si>
+    <t>2023-05-18 09:41:24</t>
+  </si>
+  <si>
+    <t>2023-05-17 15:41:27</t>
+  </si>
+  <si>
+    <t>2023-05-17 11:10:15</t>
+  </si>
+  <si>
+    <t>2023-05-17 10:25:45</t>
+  </si>
+  <si>
+    <t>2023-05-17 10:26:09</t>
+  </si>
+  <si>
+    <t>2023-05-16 16:15:24</t>
+  </si>
+  <si>
+    <t>2023-05-16 16:21:55</t>
+  </si>
+  <si>
+    <t>2023-05-16 09:42:11</t>
+  </si>
+  <si>
+    <t>2023-05-16 10:12:16</t>
+  </si>
+  <si>
+    <t>2023-05-15 11:02:12</t>
+  </si>
+  <si>
+    <t>2023-05-15 10:42:29</t>
+  </si>
+  <si>
+    <t>2023-05-15 10:40:24</t>
+  </si>
+  <si>
+    <t>2023-05-12 17:30:21</t>
+  </si>
+  <si>
+    <t>2023-05-12 15:48:42</t>
+  </si>
+  <si>
+    <t>2023-05-12 12:01:13</t>
+  </si>
+  <si>
+    <t>2023-05-12 10:37:44</t>
+  </si>
+  <si>
+    <t>2023-05-11 16:49:44</t>
+  </si>
+  <si>
+    <t>2023-05-11 10:12:46</t>
+  </si>
+  <si>
+    <t>2023-05-11 10:11:45</t>
+  </si>
+  <si>
+    <t>2023-05-11 10:10:36</t>
+  </si>
+  <si>
+    <t>2023-05-10 14:03:10</t>
+  </si>
+  <si>
+    <t>2023-05-10 09:42:59</t>
+  </si>
+  <si>
+    <t>2023-05-09 18:14:29</t>
+  </si>
+  <si>
+    <t>2023-05-09 17:16:47</t>
+  </si>
+  <si>
+    <t>2023-05-09 18:12:23</t>
+  </si>
+  <si>
+    <t>2023-05-09 16:08:31</t>
+  </si>
+  <si>
+    <t>2023-05-10 13:45:09</t>
+  </si>
+  <si>
+    <t>2023-05-09 14:38:02</t>
+  </si>
+  <si>
+    <t>2023-05-09 13:07:18</t>
+  </si>
+  <si>
+    <t>2023-05-09 16:07:42</t>
+  </si>
+  <si>
+    <t>2023-05-09 13:56:39</t>
+  </si>
+  <si>
+    <t>2023-05-09 10:19:52</t>
+  </si>
+  <si>
+    <t>2023-05-09 10:21:02</t>
+  </si>
+  <si>
+    <t>2023-05-08 17:50:33</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +2634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,34 +2695,34 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>381</v>
       </c>
       <c r="N2" s="2">
         <v>45105.61983796296</v>
       </c>
       <c r="O2" t="s">
-        <v>301</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1581,40 +2733,40 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="J3" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="M3" t="s">
-        <v>291</v>
+        <v>589</v>
       </c>
       <c r="N3" s="2">
         <v>45105.71203703704</v>
       </c>
       <c r="O3" t="s">
-        <v>302</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1625,40 +2777,40 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="J4" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>534</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>590</v>
       </c>
       <c r="N4" s="2">
         <v>45105.62965277778</v>
       </c>
       <c r="O4" t="s">
-        <v>303</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1669,37 +2821,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="K5" t="s">
-        <v>267</v>
+        <v>535</v>
       </c>
       <c r="N5" s="2">
         <v>45105.44923611111</v>
       </c>
       <c r="O5" t="s">
-        <v>304</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1710,37 +2862,37 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="J6" t="s">
-        <v>201</v>
+        <v>385</v>
       </c>
       <c r="L6" t="s">
-        <v>281</v>
+        <v>579</v>
       </c>
       <c r="N6" s="2">
         <v>45105.43206018519</v>
       </c>
       <c r="O6" t="s">
-        <v>305</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1751,34 +2903,34 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="J7" t="s">
-        <v>202</v>
+        <v>386</v>
       </c>
       <c r="N7" s="2">
         <v>45105.42451388889</v>
       </c>
       <c r="O7" t="s">
-        <v>306</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1789,37 +2941,37 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="J8" t="s">
-        <v>203</v>
+        <v>387</v>
       </c>
       <c r="M8" t="s">
-        <v>293</v>
+        <v>591</v>
       </c>
       <c r="N8" s="2">
         <v>45104.73541666667</v>
       </c>
       <c r="O8" t="s">
-        <v>307</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1830,37 +2982,37 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>388</v>
       </c>
       <c r="K9" t="s">
-        <v>204</v>
+        <v>388</v>
       </c>
       <c r="N9" s="2">
         <v>45104.6971875</v>
       </c>
       <c r="O9" t="s">
-        <v>308</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1871,40 +3023,40 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="J10" t="s">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="L10" t="s">
-        <v>282</v>
+        <v>580</v>
       </c>
       <c r="M10" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="N10" s="2">
         <v>45104.57758101852</v>
       </c>
       <c r="O10" t="s">
-        <v>309</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1915,34 +3067,34 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="J11" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="N11" s="2">
         <v>45104.44900462963</v>
       </c>
       <c r="O11" t="s">
-        <v>310</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1953,40 +3105,40 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="J12" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="L12" t="s">
-        <v>281</v>
+        <v>579</v>
       </c>
       <c r="M12" t="s">
-        <v>293</v>
+        <v>591</v>
       </c>
       <c r="N12" s="2">
         <v>45103.69350694444</v>
       </c>
       <c r="O12" t="s">
-        <v>311</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1997,34 +3149,34 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="J13" t="s">
-        <v>208</v>
+        <v>392</v>
       </c>
       <c r="N13" s="2">
         <v>45103.64107638889</v>
       </c>
       <c r="O13" t="s">
-        <v>312</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2035,37 +3187,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="J14" t="s">
-        <v>209</v>
+        <v>393</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>393</v>
       </c>
       <c r="N14" s="2">
         <v>45103.62497685185</v>
       </c>
       <c r="O14" t="s">
-        <v>313</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2076,34 +3228,34 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="N15" s="2">
         <v>45103.38063657407</v>
       </c>
       <c r="O15" t="s">
-        <v>314</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2114,40 +3266,40 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="J16" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="L16" t="s">
-        <v>283</v>
+        <v>581</v>
       </c>
       <c r="M16" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="N16" s="2">
         <v>45102.68700231481</v>
       </c>
       <c r="O16" t="s">
-        <v>315</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2158,34 +3310,34 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="J17" t="s">
-        <v>212</v>
+        <v>396</v>
       </c>
       <c r="N17" s="2">
         <v>45102.66185185185</v>
       </c>
       <c r="O17" t="s">
-        <v>316</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2196,34 +3348,34 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="J18" t="s">
-        <v>213</v>
+        <v>397</v>
       </c>
       <c r="N18" s="2">
         <v>45102.46582175926</v>
       </c>
       <c r="O18" t="s">
-        <v>317</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2234,34 +3386,34 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>398</v>
       </c>
       <c r="N19" s="2">
         <v>45098.78747685185</v>
       </c>
       <c r="O19" t="s">
-        <v>318</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2272,34 +3424,34 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>399</v>
       </c>
       <c r="N20" s="2">
         <v>45098.73539351852</v>
       </c>
       <c r="O20" t="s">
-        <v>319</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2310,34 +3462,34 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="N21" s="2">
         <v>45098.69793981482</v>
       </c>
       <c r="O21" t="s">
-        <v>320</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2348,34 +3500,34 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
       <c r="M22" t="s">
-        <v>295</v>
+        <v>593</v>
       </c>
       <c r="O22" t="s">
-        <v>321</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2386,37 +3538,37 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>402</v>
       </c>
       <c r="K23" t="s">
-        <v>268</v>
+        <v>536</v>
       </c>
       <c r="N23" s="2">
         <v>45097.68105324074</v>
       </c>
       <c r="O23" t="s">
-        <v>322</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2427,34 +3579,34 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>403</v>
       </c>
       <c r="N24" s="2">
         <v>45097.56538194444</v>
       </c>
       <c r="O24" t="s">
-        <v>323</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2465,34 +3617,34 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>404</v>
       </c>
       <c r="N25" s="2">
         <v>45097.47234953703</v>
       </c>
       <c r="O25" t="s">
-        <v>324</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2503,40 +3655,40 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="L26" t="s">
-        <v>281</v>
+        <v>579</v>
       </c>
       <c r="M26" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="N26" s="2">
         <v>45097.45231481481</v>
       </c>
       <c r="O26" t="s">
-        <v>325</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2547,37 +3699,37 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>406</v>
       </c>
       <c r="L27" t="s">
-        <v>284</v>
+        <v>582</v>
       </c>
       <c r="N27" s="2">
         <v>45096.73905092593</v>
       </c>
       <c r="O27" t="s">
-        <v>326</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2588,37 +3740,37 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>407</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>407</v>
       </c>
       <c r="N28" s="2">
         <v>45096.68133101852</v>
       </c>
       <c r="O28" t="s">
-        <v>327</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2629,40 +3781,40 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>408</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>408</v>
       </c>
       <c r="M29" t="s">
-        <v>296</v>
+        <v>594</v>
       </c>
       <c r="N29" s="2">
         <v>45096.66436342592</v>
       </c>
       <c r="O29" t="s">
-        <v>328</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2673,37 +3825,37 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="I30" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>225</v>
+        <v>409</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>409</v>
       </c>
       <c r="N30" s="2">
         <v>45096.61211805556</v>
       </c>
       <c r="O30" t="s">
-        <v>329</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2714,40 +3866,40 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>410</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>410</v>
       </c>
       <c r="M31" t="s">
-        <v>297</v>
+        <v>595</v>
       </c>
       <c r="N31" s="2">
         <v>45096.57662037037</v>
       </c>
       <c r="O31" t="s">
-        <v>330</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2758,43 +3910,43 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>411</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>537</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>583</v>
       </c>
       <c r="M32" t="s">
-        <v>298</v>
+        <v>596</v>
       </c>
       <c r="N32" s="2">
         <v>45093.74186342592</v>
       </c>
       <c r="O32" t="s">
-        <v>331</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2805,37 +3957,37 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I33" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="J33" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="K33" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="N33" s="2">
         <v>45093.58325231481</v>
       </c>
       <c r="O33" t="s">
-        <v>332</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2846,43 +3998,43 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H34" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>413</v>
       </c>
       <c r="K34" t="s">
-        <v>229</v>
+        <v>413</v>
       </c>
       <c r="L34" t="s">
-        <v>286</v>
+        <v>584</v>
       </c>
       <c r="M34" t="s">
-        <v>299</v>
+        <v>597</v>
       </c>
       <c r="N34" s="2">
         <v>45093.58275462963</v>
       </c>
       <c r="O34" t="s">
-        <v>333</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2893,37 +4045,37 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="J35" t="s">
-        <v>230</v>
+        <v>414</v>
       </c>
       <c r="K35" t="s">
-        <v>270</v>
+        <v>538</v>
       </c>
       <c r="N35" s="2">
         <v>45092.45618055556</v>
       </c>
       <c r="O35" t="s">
-        <v>334</v>
+        <v>635</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2934,40 +4086,40 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>231</v>
+        <v>415</v>
       </c>
       <c r="L36" t="s">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="M36" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="N36" s="2">
         <v>45092.45578703703</v>
       </c>
       <c r="O36" t="s">
-        <v>335</v>
+        <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2978,37 +4130,37 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H37" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="J37" t="s">
-        <v>232</v>
+        <v>416</v>
       </c>
       <c r="K37" t="s">
-        <v>232</v>
+        <v>416</v>
       </c>
       <c r="N37" s="2">
         <v>45091.70708333333</v>
       </c>
       <c r="O37" t="s">
-        <v>336</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3019,37 +4171,37 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="L38" t="s">
-        <v>284</v>
+        <v>582</v>
       </c>
       <c r="N38" s="2">
         <v>45091.67885416667</v>
       </c>
       <c r="O38" t="s">
-        <v>337</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3060,31 +4212,31 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H39" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="J39" t="s">
-        <v>234</v>
+        <v>418</v>
       </c>
       <c r="O39" t="s">
-        <v>321</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3095,37 +4247,37 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>266</v>
       </c>
       <c r="J40" t="s">
-        <v>235</v>
+        <v>419</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>539</v>
       </c>
       <c r="N40" s="2">
         <v>45091.59606481482</v>
       </c>
       <c r="O40" t="s">
-        <v>338</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3136,37 +4288,37 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="J41" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="K41" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="N41" s="2">
         <v>45091.41163194444</v>
       </c>
       <c r="O41" t="s">
-        <v>339</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3177,37 +4329,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="J42" t="s">
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="K42" t="s">
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="N42" s="2">
         <v>45090.65152777778</v>
       </c>
       <c r="O42" t="s">
-        <v>340</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3218,37 +4370,37 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="J43" t="s">
-        <v>238</v>
+        <v>422</v>
       </c>
       <c r="K43" t="s">
-        <v>238</v>
+        <v>422</v>
       </c>
       <c r="N43" s="2">
         <v>45090.65130787037</v>
       </c>
       <c r="O43" t="s">
-        <v>341</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3259,40 +4411,40 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H44" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="J44" t="s">
-        <v>239</v>
+        <v>423</v>
       </c>
       <c r="K44" t="s">
-        <v>239</v>
+        <v>423</v>
       </c>
       <c r="M44" t="s">
-        <v>296</v>
+        <v>594</v>
       </c>
       <c r="N44" s="2">
         <v>45090.40931712963</v>
       </c>
       <c r="O44" t="s">
-        <v>342</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3303,40 +4455,40 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="J45" t="s">
-        <v>240</v>
+        <v>424</v>
       </c>
       <c r="K45" t="s">
-        <v>240</v>
+        <v>424</v>
       </c>
       <c r="L45" t="s">
-        <v>281</v>
+        <v>579</v>
       </c>
       <c r="N45" s="2">
         <v>45089.7294212963</v>
       </c>
       <c r="O45" t="s">
-        <v>343</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3347,37 +4499,37 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="J46" t="s">
-        <v>241</v>
+        <v>425</v>
       </c>
       <c r="L46" t="s">
-        <v>284</v>
+        <v>582</v>
       </c>
       <c r="N46" s="2">
         <v>45089.48334490741</v>
       </c>
       <c r="O46" t="s">
-        <v>344</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3388,37 +4540,37 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="J47" t="s">
-        <v>242</v>
+        <v>426</v>
       </c>
       <c r="K47" t="s">
-        <v>272</v>
+        <v>540</v>
       </c>
       <c r="N47" s="2">
         <v>45086.71767361111</v>
       </c>
       <c r="O47" t="s">
-        <v>345</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3429,34 +4581,34 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I48" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="J48" t="s">
-        <v>243</v>
+        <v>427</v>
       </c>
       <c r="N48" s="2">
         <v>45086.68611111111</v>
       </c>
       <c r="O48" t="s">
-        <v>346</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3467,37 +4619,37 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I49" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="J49" t="s">
-        <v>244</v>
+        <v>428</v>
       </c>
       <c r="M49" t="s">
-        <v>293</v>
+        <v>591</v>
       </c>
       <c r="N49" s="2">
         <v>45086.59201388889</v>
       </c>
       <c r="O49" t="s">
-        <v>347</v>
+        <v>648</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3508,37 +4660,37 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="F50" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="I50" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="J50" t="s">
-        <v>245</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>288</v>
+        <v>586</v>
       </c>
       <c r="N50" s="2">
         <v>45086.59751157407</v>
       </c>
       <c r="O50" t="s">
-        <v>348</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3549,37 +4701,37 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="I51" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="J51" t="s">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="K51" t="s">
-        <v>273</v>
+        <v>541</v>
       </c>
       <c r="M51" t="s">
-        <v>300</v>
+        <v>598</v>
       </c>
       <c r="N51" s="2">
         <v>45086.57303240741</v>
       </c>
       <c r="O51" t="s">
-        <v>349</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3590,34 +4742,34 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="J52" t="s">
-        <v>247</v>
+        <v>431</v>
       </c>
       <c r="N52" s="2">
         <v>45086.41466435185</v>
       </c>
       <c r="O52" t="s">
-        <v>350</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3628,40 +4780,40 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="J53" t="s">
-        <v>248</v>
+        <v>432</v>
       </c>
       <c r="K53" t="s">
-        <v>274</v>
+        <v>542</v>
       </c>
       <c r="L53" t="s">
-        <v>281</v>
+        <v>579</v>
       </c>
       <c r="N53" s="2">
         <v>45085.7309837963</v>
       </c>
       <c r="O53" t="s">
-        <v>351</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3672,43 +4824,43 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="F54" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="I54" t="s">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="J54" t="s">
-        <v>249</v>
+        <v>433</v>
       </c>
       <c r="K54" t="s">
-        <v>249</v>
+        <v>433</v>
       </c>
       <c r="L54" t="s">
-        <v>289</v>
+        <v>587</v>
       </c>
       <c r="M54" t="s">
-        <v>300</v>
+        <v>598</v>
       </c>
       <c r="N54" s="2">
         <v>45085.73271990741</v>
       </c>
       <c r="O54" t="s">
-        <v>352</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3719,40 +4871,40 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="J55" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s">
-        <v>295</v>
+        <v>593</v>
       </c>
       <c r="N55" s="2">
         <v>45085.6141087963</v>
       </c>
       <c r="O55" t="s">
-        <v>353</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3763,40 +4915,40 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G56" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="J56" t="s">
-        <v>251</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s">
-        <v>290</v>
+        <v>588</v>
       </c>
       <c r="M56" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="N56" s="2">
         <v>45085.60893518518</v>
       </c>
       <c r="O56" t="s">
-        <v>354</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3807,34 +4959,34 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="I57" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="J57" t="s">
-        <v>252</v>
+        <v>436</v>
       </c>
       <c r="N57" s="2">
         <v>45085.60832175926</v>
       </c>
       <c r="O57" t="s">
-        <v>355</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3845,34 +4997,34 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I58" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="J58" t="s">
-        <v>253</v>
+        <v>437</v>
       </c>
       <c r="N58" s="2">
         <v>45085.40315972222</v>
       </c>
       <c r="O58" t="s">
-        <v>356</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3883,37 +5035,37 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H59" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="J59" t="s">
-        <v>254</v>
+        <v>438</v>
       </c>
       <c r="K59" t="s">
-        <v>275</v>
+        <v>543</v>
       </c>
       <c r="N59" s="2">
         <v>45084.72112268519</v>
       </c>
       <c r="O59" t="s">
-        <v>357</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3924,40 +5076,40 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H60" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="I60" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="J60" t="s">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="K60" t="s">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s">
-        <v>296</v>
+        <v>594</v>
       </c>
       <c r="N60" s="2">
         <v>45084.60341435186</v>
       </c>
       <c r="O60" t="s">
-        <v>358</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3968,40 +5120,40 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I61" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="J61" t="s">
-        <v>256</v>
+        <v>440</v>
       </c>
       <c r="K61" t="s">
-        <v>256</v>
+        <v>440</v>
       </c>
       <c r="L61" t="s">
-        <v>285</v>
+        <v>583</v>
       </c>
       <c r="N61" s="2">
         <v>45084.55453703704</v>
       </c>
       <c r="O61" t="s">
-        <v>359</v>
+        <v>660</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4012,37 +5164,37 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I62" t="s">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="J62" t="s">
-        <v>257</v>
+        <v>441</v>
       </c>
       <c r="K62" t="s">
-        <v>276</v>
+        <v>544</v>
       </c>
       <c r="N62" s="2">
         <v>45083.64915509259</v>
       </c>
       <c r="O62" t="s">
-        <v>360</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4053,34 +5205,34 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H63" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="I63" t="s">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="J63" t="s">
-        <v>258</v>
+        <v>442</v>
       </c>
       <c r="N63" s="2">
         <v>45082.68375</v>
       </c>
       <c r="O63" t="s">
-        <v>361</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4091,37 +5243,37 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="G64" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="I64" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="J64" t="s">
-        <v>259</v>
+        <v>443</v>
       </c>
       <c r="K64" t="s">
-        <v>259</v>
+        <v>443</v>
       </c>
       <c r="N64" s="2">
         <v>45082.64835648148</v>
       </c>
       <c r="O64" t="s">
-        <v>362</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4132,37 +5284,37 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H65" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="I65" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="J65" t="s">
-        <v>260</v>
+        <v>444</v>
       </c>
       <c r="K65" t="s">
-        <v>277</v>
+        <v>545</v>
       </c>
       <c r="N65" s="2">
         <v>45082.64523148148</v>
       </c>
       <c r="O65" t="s">
-        <v>363</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4173,37 +5325,37 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="F66" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H66" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="I66" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="J66" t="s">
-        <v>261</v>
+        <v>445</v>
       </c>
       <c r="K66" t="s">
-        <v>278</v>
+        <v>546</v>
       </c>
       <c r="N66" s="2">
         <v>45082.64042824074</v>
       </c>
       <c r="O66" t="s">
-        <v>364</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4214,37 +5366,37 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H67" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="I67" t="s">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="J67" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="K67" t="s">
-        <v>279</v>
+        <v>547</v>
       </c>
       <c r="N67" s="2">
         <v>45082.58827546296</v>
       </c>
       <c r="O67" t="s">
-        <v>365</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4255,34 +5407,34 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="G68" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I68" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="J68" t="s">
-        <v>263</v>
+        <v>447</v>
       </c>
       <c r="N68" s="2">
         <v>45082.57416666667</v>
       </c>
       <c r="O68" t="s">
-        <v>366</v>
+        <v>667</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4293,40 +5445,40 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G69" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="I69" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="J69" t="s">
-        <v>264</v>
+        <v>448</v>
       </c>
       <c r="K69" t="s">
-        <v>264</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s">
-        <v>296</v>
+        <v>594</v>
       </c>
       <c r="N69" s="2">
         <v>45079.65526620371</v>
       </c>
       <c r="O69" t="s">
-        <v>367</v>
+        <v>668</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4337,37 +5489,3457 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="F70" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G70" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="I70" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="J70" t="s">
-        <v>265</v>
+        <v>449</v>
       </c>
       <c r="K70" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="N70" s="2">
         <v>45079.66011574074</v>
       </c>
       <c r="O70" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>1001704</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" t="s">
+        <v>213</v>
+      </c>
+      <c r="G71" t="s">
+        <v>225</v>
+      </c>
+      <c r="H71" t="s">
+        <v>187</v>
+      </c>
+      <c r="I71" t="s">
+        <v>297</v>
+      </c>
+      <c r="J71" t="s">
+        <v>450</v>
+      </c>
+      <c r="K71" t="s">
+        <v>450</v>
+      </c>
+      <c r="N71" s="2">
+        <v>45079.61657407408</v>
+      </c>
+      <c r="O71" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72">
+        <v>1001703</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" t="s">
+        <v>213</v>
+      </c>
+      <c r="G72" t="s">
+        <v>225</v>
+      </c>
+      <c r="H72" t="s">
+        <v>189</v>
+      </c>
+      <c r="I72" t="s">
+        <v>298</v>
+      </c>
+      <c r="J72" t="s">
+        <v>451</v>
+      </c>
+      <c r="K72" t="s">
+        <v>451</v>
+      </c>
+      <c r="M72" t="s">
+        <v>594</v>
+      </c>
+      <c r="N72" s="2">
+        <v>45079.56958333333</v>
+      </c>
+      <c r="O72" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
+        <v>1001702</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" t="s">
+        <v>225</v>
+      </c>
+      <c r="H73" t="s">
+        <v>175</v>
+      </c>
+      <c r="I73" t="s">
+        <v>299</v>
+      </c>
+      <c r="J73" t="s">
+        <v>452</v>
+      </c>
+      <c r="K73" t="s">
+        <v>452</v>
+      </c>
+      <c r="L73" t="s">
+        <v>581</v>
+      </c>
+      <c r="M73" t="s">
+        <v>591</v>
+      </c>
+      <c r="N73" s="2">
+        <v>45079.42331018519</v>
+      </c>
+      <c r="O73" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <v>1001701</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" t="s">
+        <v>213</v>
+      </c>
+      <c r="G74" t="s">
+        <v>225</v>
+      </c>
+      <c r="H74" t="s">
+        <v>197</v>
+      </c>
+      <c r="I74" t="s">
+        <v>300</v>
+      </c>
+      <c r="J74" t="s">
+        <v>453</v>
+      </c>
+      <c r="K74" t="s">
+        <v>453</v>
+      </c>
+      <c r="M74" t="s">
+        <v>598</v>
+      </c>
+      <c r="N74" s="2">
+        <v>45079.40505787037</v>
+      </c>
+      <c r="O74" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75">
+        <v>1001700</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H75" t="s">
+        <v>195</v>
+      </c>
+      <c r="I75" t="s">
+        <v>301</v>
+      </c>
+      <c r="J75" t="s">
+        <v>454</v>
+      </c>
+      <c r="N75" s="2">
+        <v>45078.65991898148</v>
+      </c>
+      <c r="O75" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76">
+        <v>1001698</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" t="s">
+        <v>179</v>
+      </c>
+      <c r="I76" t="s">
+        <v>302</v>
+      </c>
+      <c r="J76" t="s">
+        <v>455</v>
+      </c>
+      <c r="K76" t="s">
+        <v>549</v>
+      </c>
+      <c r="N76" s="2">
+        <v>45078.58629629629</v>
+      </c>
+      <c r="O76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <v>1001697</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G77" t="s">
+        <v>225</v>
+      </c>
+      <c r="H77" t="s">
+        <v>179</v>
+      </c>
+      <c r="I77" t="s">
+        <v>303</v>
+      </c>
+      <c r="J77" t="s">
+        <v>456</v>
+      </c>
+      <c r="L77" t="s">
+        <v>579</v>
+      </c>
+      <c r="M77" t="s">
+        <v>592</v>
+      </c>
+      <c r="N77" s="2">
+        <v>45078.48825231481</v>
+      </c>
+      <c r="O77" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78">
+        <v>1001696</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" t="s">
+        <v>222</v>
+      </c>
+      <c r="G78" t="s">
+        <v>225</v>
+      </c>
+      <c r="H78" t="s">
+        <v>179</v>
+      </c>
+      <c r="I78" t="s">
+        <v>304</v>
+      </c>
+      <c r="J78" t="s">
+        <v>457</v>
+      </c>
+      <c r="M78" t="s">
+        <v>592</v>
+      </c>
+      <c r="N78" s="2">
+        <v>45077.77642361111</v>
+      </c>
+      <c r="O78" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79">
+        <v>1001695</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" t="s">
+        <v>180</v>
+      </c>
+      <c r="F79" t="s">
+        <v>213</v>
+      </c>
+      <c r="G79" t="s">
+        <v>225</v>
+      </c>
+      <c r="H79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I79" t="s">
+        <v>305</v>
+      </c>
+      <c r="J79" t="s">
+        <v>458</v>
+      </c>
+      <c r="K79" t="s">
+        <v>550</v>
+      </c>
+      <c r="M79" t="s">
+        <v>594</v>
+      </c>
+      <c r="N79" s="2">
+        <v>45077.71799768518</v>
+      </c>
+      <c r="O79" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80">
+        <v>1001694</v>
+      </c>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" t="s">
+        <v>225</v>
+      </c>
+      <c r="H80" t="s">
+        <v>179</v>
+      </c>
+      <c r="I80" t="s">
+        <v>306</v>
+      </c>
+      <c r="J80" t="s">
+        <v>459</v>
+      </c>
+      <c r="K80" t="s">
+        <v>551</v>
+      </c>
+      <c r="N80" s="2">
+        <v>45078.44059027778</v>
+      </c>
+      <c r="O80" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>1001693</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" t="s">
+        <v>213</v>
+      </c>
+      <c r="G81" t="s">
+        <v>225</v>
+      </c>
+      <c r="H81" t="s">
+        <v>187</v>
+      </c>
+      <c r="I81" t="s">
+        <v>307</v>
+      </c>
+      <c r="J81" t="s">
+        <v>460</v>
+      </c>
+      <c r="K81" t="s">
+        <v>552</v>
+      </c>
+      <c r="L81" t="s">
+        <v>583</v>
+      </c>
+      <c r="N81" s="2">
+        <v>45077.70901620371</v>
+      </c>
+      <c r="O81" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82">
+        <v>1001692</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" t="s">
+        <v>175</v>
+      </c>
+      <c r="F82" t="s">
+        <v>217</v>
+      </c>
+      <c r="G82" t="s">
+        <v>225</v>
+      </c>
+      <c r="H82" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" t="s">
+        <v>308</v>
+      </c>
+      <c r="J82" t="s">
+        <v>461</v>
+      </c>
+      <c r="N82" s="2">
+        <v>45077.69122685185</v>
+      </c>
+      <c r="O82" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83">
+        <v>1001691</v>
+      </c>
+      <c r="B83" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
+        <v>213</v>
+      </c>
+      <c r="G83" t="s">
+        <v>225</v>
+      </c>
+      <c r="H83" t="s">
+        <v>187</v>
+      </c>
+      <c r="I83" t="s">
+        <v>309</v>
+      </c>
+      <c r="J83" t="s">
+        <v>462</v>
+      </c>
+      <c r="K83" t="s">
+        <v>553</v>
+      </c>
+      <c r="N83" s="2">
+        <v>45077.64615740741</v>
+      </c>
+      <c r="O83" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84">
+        <v>1001690</v>
+      </c>
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" t="s">
+        <v>225</v>
+      </c>
+      <c r="H84" t="s">
+        <v>199</v>
+      </c>
+      <c r="I84" t="s">
+        <v>310</v>
+      </c>
+      <c r="J84" t="s">
+        <v>463</v>
+      </c>
+      <c r="K84" t="s">
+        <v>554</v>
+      </c>
+      <c r="N84" s="2">
+        <v>45077.60878472222</v>
+      </c>
+      <c r="O84" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85">
+        <v>1001689</v>
+      </c>
+      <c r="B85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" t="s">
+        <v>182</v>
+      </c>
+      <c r="F85" t="s">
+        <v>211</v>
+      </c>
+      <c r="G85" t="s">
+        <v>225</v>
+      </c>
+      <c r="H85" t="s">
+        <v>182</v>
+      </c>
+      <c r="I85" t="s">
+        <v>311</v>
+      </c>
+      <c r="J85" t="s">
+        <v>464</v>
+      </c>
+      <c r="N85" s="2">
+        <v>45077.47284722222</v>
+      </c>
+      <c r="O85" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86">
+        <v>1001688</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" t="s">
+        <v>225</v>
+      </c>
+      <c r="H86" t="s">
+        <v>200</v>
+      </c>
+      <c r="I86" t="s">
+        <v>312</v>
+      </c>
+      <c r="J86" t="s">
+        <v>465</v>
+      </c>
+      <c r="N86" s="2">
+        <v>45077.50204861111</v>
+      </c>
+      <c r="O86" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87">
+        <v>1001686</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" t="s">
+        <v>211</v>
+      </c>
+      <c r="G87" t="s">
+        <v>225</v>
+      </c>
+      <c r="H87" t="s">
+        <v>201</v>
+      </c>
+      <c r="I87" t="s">
+        <v>313</v>
+      </c>
+      <c r="J87" t="s">
+        <v>466</v>
+      </c>
+      <c r="K87" t="s">
+        <v>466</v>
+      </c>
+      <c r="N87" s="2">
+        <v>45076.47673611111</v>
+      </c>
+      <c r="O87" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88">
+        <v>1001685</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" t="s">
+        <v>186</v>
+      </c>
+      <c r="F88" t="s">
+        <v>220</v>
+      </c>
+      <c r="G88" t="s">
+        <v>225</v>
+      </c>
+      <c r="H88" t="s">
+        <v>186</v>
+      </c>
+      <c r="I88" t="s">
+        <v>314</v>
+      </c>
+      <c r="J88" t="s">
+        <v>467</v>
+      </c>
+      <c r="N88" s="2">
+        <v>45075.41954861111</v>
+      </c>
+      <c r="O88" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <v>1001684</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" t="s">
+        <v>213</v>
+      </c>
+      <c r="G89" t="s">
+        <v>225</v>
+      </c>
+      <c r="H89" t="s">
+        <v>190</v>
+      </c>
+      <c r="I89" t="s">
+        <v>315</v>
+      </c>
+      <c r="J89" t="s">
+        <v>468</v>
+      </c>
+      <c r="K89" t="s">
+        <v>555</v>
+      </c>
+      <c r="N89" s="2">
+        <v>45075.40818287037</v>
+      </c>
+      <c r="O89" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <v>1001683</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" t="s">
+        <v>195</v>
+      </c>
+      <c r="F90" t="s">
+        <v>222</v>
+      </c>
+      <c r="G90" t="s">
+        <v>225</v>
+      </c>
+      <c r="H90" t="s">
+        <v>195</v>
+      </c>
+      <c r="I90" t="s">
+        <v>316</v>
+      </c>
+      <c r="J90" t="s">
+        <v>469</v>
+      </c>
+      <c r="N90" s="2">
+        <v>45072.68195601852</v>
+      </c>
+      <c r="O90" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91">
+        <v>1001682</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" t="s">
+        <v>223</v>
+      </c>
+      <c r="G91" t="s">
+        <v>225</v>
+      </c>
+      <c r="H91" t="s">
+        <v>175</v>
+      </c>
+      <c r="I91" t="s">
+        <v>317</v>
+      </c>
+      <c r="J91" t="s">
+        <v>470</v>
+      </c>
+      <c r="N91" s="2">
+        <v>45072.470625</v>
+      </c>
+      <c r="O91" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92">
+        <v>1001681</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" t="s">
+        <v>213</v>
+      </c>
+      <c r="G92" t="s">
+        <v>225</v>
+      </c>
+      <c r="H92" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" t="s">
+        <v>318</v>
+      </c>
+      <c r="J92" t="s">
+        <v>471</v>
+      </c>
+      <c r="K92" t="s">
+        <v>471</v>
+      </c>
+      <c r="N92" s="2">
+        <v>45071.58084490741</v>
+      </c>
+      <c r="O92" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
+        <v>1001680</v>
+      </c>
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" t="s">
+        <v>170</v>
+      </c>
+      <c r="E93" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" t="s">
+        <v>225</v>
+      </c>
+      <c r="H93" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93" t="s">
+        <v>319</v>
+      </c>
+      <c r="J93" t="s">
+        <v>472</v>
+      </c>
+      <c r="K93" t="s">
+        <v>472</v>
+      </c>
+      <c r="M93" t="s">
+        <v>594</v>
+      </c>
+      <c r="N93" s="2">
+        <v>45071.43420138889</v>
+      </c>
+      <c r="O93" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94">
+        <v>1001679</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" t="s">
+        <v>170</v>
+      </c>
+      <c r="E94" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" t="s">
+        <v>225</v>
+      </c>
+      <c r="H94" t="s">
+        <v>197</v>
+      </c>
+      <c r="I94" t="s">
+        <v>320</v>
+      </c>
+      <c r="J94" t="s">
+        <v>473</v>
+      </c>
+      <c r="K94" t="s">
+        <v>556</v>
+      </c>
+      <c r="M94" t="s">
+        <v>598</v>
+      </c>
+      <c r="N94" s="2">
+        <v>45071.41328703704</v>
+      </c>
+      <c r="O94" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95">
+        <v>1001677</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" t="s">
+        <v>169</v>
+      </c>
+      <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
+        <v>219</v>
+      </c>
+      <c r="G95" t="s">
+        <v>225</v>
+      </c>
+      <c r="H95" t="s">
+        <v>182</v>
+      </c>
+      <c r="I95" t="s">
+        <v>321</v>
+      </c>
+      <c r="J95" t="s">
+        <v>474</v>
+      </c>
+      <c r="M95" t="s">
+        <v>182</v>
+      </c>
+      <c r="N95" s="2">
+        <v>45070.59232638889</v>
+      </c>
+      <c r="O95" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96">
+        <v>1001674</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" t="s">
+        <v>169</v>
+      </c>
+      <c r="E96" t="s">
+        <v>175</v>
+      </c>
+      <c r="F96" t="s">
+        <v>217</v>
+      </c>
+      <c r="G96" t="s">
+        <v>225</v>
+      </c>
+      <c r="H96" t="s">
+        <v>175</v>
+      </c>
+      <c r="I96" t="s">
+        <v>322</v>
+      </c>
+      <c r="J96" t="s">
+        <v>475</v>
+      </c>
+      <c r="N96" s="2">
+        <v>45070.55572916667</v>
+      </c>
+      <c r="O96" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97">
+        <v>1001673</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" t="s">
+        <v>170</v>
+      </c>
+      <c r="E97" t="s">
+        <v>202</v>
+      </c>
+      <c r="F97" t="s">
+        <v>211</v>
+      </c>
+      <c r="G97" t="s">
+        <v>225</v>
+      </c>
+      <c r="H97" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" t="s">
+        <v>323</v>
+      </c>
+      <c r="J97" t="s">
+        <v>476</v>
+      </c>
+      <c r="K97" t="s">
+        <v>476</v>
+      </c>
+      <c r="N97" s="2">
+        <v>45070.47122685185</v>
+      </c>
+      <c r="O97" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
+        <v>1001672</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" t="s">
+        <v>217</v>
+      </c>
+      <c r="G98" t="s">
+        <v>225</v>
+      </c>
+      <c r="H98" t="s">
+        <v>179</v>
+      </c>
+      <c r="I98" t="s">
+        <v>324</v>
+      </c>
+      <c r="J98" t="s">
+        <v>477</v>
+      </c>
+      <c r="K98" t="s">
+        <v>557</v>
+      </c>
+      <c r="N98" s="2">
+        <v>45070.4708912037</v>
+      </c>
+      <c r="O98" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <v>1001671</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99" t="s">
+        <v>197</v>
+      </c>
+      <c r="F99" t="s">
+        <v>221</v>
+      </c>
+      <c r="G99" t="s">
+        <v>225</v>
+      </c>
+      <c r="H99" t="s">
+        <v>197</v>
+      </c>
+      <c r="I99" t="s">
+        <v>325</v>
+      </c>
+      <c r="J99" t="s">
+        <v>478</v>
+      </c>
+      <c r="M99" t="s">
+        <v>598</v>
+      </c>
+      <c r="N99" s="2">
+        <v>45069.74547453703</v>
+      </c>
+      <c r="O99" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <v>1001670</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" t="s">
+        <v>180</v>
+      </c>
+      <c r="F100" t="s">
+        <v>224</v>
+      </c>
+      <c r="G100" t="s">
+        <v>225</v>
+      </c>
+      <c r="H100" t="s">
+        <v>179</v>
+      </c>
+      <c r="I100" t="s">
+        <v>326</v>
+      </c>
+      <c r="J100" t="s">
+        <v>479</v>
+      </c>
+      <c r="K100" t="s">
+        <v>558</v>
+      </c>
+      <c r="N100" s="2">
+        <v>45069.64755787037</v>
+      </c>
+      <c r="O100" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>1001669</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E101" t="s">
+        <v>179</v>
+      </c>
+      <c r="F101" t="s">
+        <v>219</v>
+      </c>
+      <c r="G101" t="s">
+        <v>225</v>
+      </c>
+      <c r="H101" t="s">
+        <v>179</v>
+      </c>
+      <c r="I101" t="s">
+        <v>327</v>
+      </c>
+      <c r="J101" t="s">
+        <v>480</v>
+      </c>
+      <c r="K101" t="s">
+        <v>559</v>
+      </c>
+      <c r="M101" t="s">
+        <v>592</v>
+      </c>
+      <c r="N101" s="2">
+        <v>45069.63186342592</v>
+      </c>
+      <c r="O101" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>1001668</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" t="s">
+        <v>175</v>
+      </c>
+      <c r="F102" t="s">
+        <v>225</v>
+      </c>
+      <c r="G102" t="s">
+        <v>225</v>
+      </c>
+      <c r="H102" t="s">
+        <v>175</v>
+      </c>
+      <c r="I102" t="s">
+        <v>328</v>
+      </c>
+      <c r="J102" t="s">
+        <v>481</v>
+      </c>
+      <c r="N102" s="2">
+        <v>45069.4855787037</v>
+      </c>
+      <c r="O102" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
+        <v>1001667</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" t="s">
+        <v>169</v>
+      </c>
+      <c r="E103" t="s">
+        <v>175</v>
+      </c>
+      <c r="F103" t="s">
+        <v>211</v>
+      </c>
+      <c r="G103" t="s">
+        <v>225</v>
+      </c>
+      <c r="H103" t="s">
+        <v>175</v>
+      </c>
+      <c r="I103" t="s">
+        <v>329</v>
+      </c>
+      <c r="J103" t="s">
+        <v>482</v>
+      </c>
+      <c r="N103" s="2">
+        <v>45069.40903935185</v>
+      </c>
+      <c r="O103" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <v>1001666</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" t="s">
+        <v>170</v>
+      </c>
+      <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
+        <v>222</v>
+      </c>
+      <c r="G104" t="s">
+        <v>225</v>
+      </c>
+      <c r="H104" t="s">
+        <v>186</v>
+      </c>
+      <c r="I104" t="s">
+        <v>330</v>
+      </c>
+      <c r="J104" t="s">
+        <v>483</v>
+      </c>
+      <c r="K104" t="s">
+        <v>483</v>
+      </c>
+      <c r="M104" t="s">
+        <v>599</v>
+      </c>
+      <c r="N104" s="2">
+        <v>45068.7755787037</v>
+      </c>
+      <c r="O104" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>1001665</v>
+      </c>
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" t="s">
+        <v>172</v>
+      </c>
+      <c r="E105" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" t="s">
+        <v>220</v>
+      </c>
+      <c r="G105" t="s">
+        <v>225</v>
+      </c>
+      <c r="H105" t="s">
+        <v>197</v>
+      </c>
+      <c r="I105" t="s">
+        <v>331</v>
+      </c>
+      <c r="J105" t="s">
+        <v>484</v>
+      </c>
+      <c r="K105" t="s">
+        <v>560</v>
+      </c>
+      <c r="M105" t="s">
+        <v>598</v>
+      </c>
+      <c r="N105" s="2">
+        <v>45069.64137731482</v>
+      </c>
+      <c r="O105" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106">
+        <v>1001664</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" t="s">
+        <v>194</v>
+      </c>
+      <c r="F106" t="s">
+        <v>216</v>
+      </c>
+      <c r="G106" t="s">
+        <v>225</v>
+      </c>
+      <c r="H106" t="s">
+        <v>194</v>
+      </c>
+      <c r="I106" t="s">
+        <v>332</v>
+      </c>
+      <c r="J106" t="s">
+        <v>485</v>
+      </c>
+      <c r="K106" t="s">
+        <v>485</v>
+      </c>
+      <c r="N106" s="2">
+        <v>45068.65659722222</v>
+      </c>
+      <c r="O106" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>1001663</v>
+      </c>
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" t="s">
+        <v>169</v>
+      </c>
+      <c r="E107" t="s">
+        <v>180</v>
+      </c>
+      <c r="F107" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" t="s">
+        <v>225</v>
+      </c>
+      <c r="H107" t="s">
+        <v>194</v>
+      </c>
+      <c r="I107" t="s">
+        <v>333</v>
+      </c>
+      <c r="J107" t="s">
+        <v>486</v>
+      </c>
+      <c r="N107" s="2">
+        <v>45068.64907407408</v>
+      </c>
+      <c r="O107" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>1001662</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" t="s">
+        <v>169</v>
+      </c>
+      <c r="E108" t="s">
+        <v>175</v>
+      </c>
+      <c r="F108" t="s">
+        <v>217</v>
+      </c>
+      <c r="G108" t="s">
+        <v>225</v>
+      </c>
+      <c r="H108" t="s">
+        <v>175</v>
+      </c>
+      <c r="I108" t="s">
+        <v>334</v>
+      </c>
+      <c r="J108" t="s">
+        <v>487</v>
+      </c>
+      <c r="N108" s="2">
+        <v>45068.59633101852</v>
+      </c>
+      <c r="O108" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>1001661</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" t="s">
+        <v>169</v>
+      </c>
+      <c r="E109" t="s">
+        <v>191</v>
+      </c>
+      <c r="F109" t="s">
+        <v>218</v>
+      </c>
+      <c r="G109" t="s">
+        <v>225</v>
+      </c>
+      <c r="H109" t="s">
+        <v>191</v>
+      </c>
+      <c r="I109" t="s">
+        <v>335</v>
+      </c>
+      <c r="J109" t="s">
+        <v>488</v>
+      </c>
+      <c r="N109" s="2">
+        <v>45068.49123842592</v>
+      </c>
+      <c r="O109" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <v>1001660</v>
+      </c>
+      <c r="B110" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E110" t="s">
+        <v>194</v>
+      </c>
+      <c r="F110" t="s">
+        <v>216</v>
+      </c>
+      <c r="G110" t="s">
+        <v>225</v>
+      </c>
+      <c r="H110" t="s">
+        <v>194</v>
+      </c>
+      <c r="I110" t="s">
+        <v>336</v>
+      </c>
+      <c r="J110" t="s">
+        <v>489</v>
+      </c>
+      <c r="K110" t="s">
+        <v>561</v>
+      </c>
+      <c r="N110" s="2">
+        <v>45068.43944444445</v>
+      </c>
+      <c r="O110" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
+        <v>1001659</v>
+      </c>
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" t="s">
+        <v>203</v>
+      </c>
+      <c r="F111" t="s">
+        <v>222</v>
+      </c>
+      <c r="G111" t="s">
+        <v>225</v>
+      </c>
+      <c r="H111" t="s">
+        <v>179</v>
+      </c>
+      <c r="I111" t="s">
+        <v>337</v>
+      </c>
+      <c r="J111" t="s">
+        <v>490</v>
+      </c>
+      <c r="N111" s="2">
+        <v>45068.44081018519</v>
+      </c>
+      <c r="O111" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
+        <v>1001658</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" t="s">
+        <v>214</v>
+      </c>
+      <c r="G112" t="s">
+        <v>225</v>
+      </c>
+      <c r="H112" t="s">
+        <v>202</v>
+      </c>
+      <c r="I112" t="s">
+        <v>338</v>
+      </c>
+      <c r="J112" t="s">
+        <v>491</v>
+      </c>
+      <c r="K112" t="s">
+        <v>491</v>
+      </c>
+      <c r="N112" s="2">
+        <v>45065.75064814815</v>
+      </c>
+      <c r="O112" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113">
+        <v>1001657</v>
+      </c>
+      <c r="B113" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+      <c r="D113" t="s">
+        <v>169</v>
+      </c>
+      <c r="E113" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113" t="s">
+        <v>217</v>
+      </c>
+      <c r="G113" t="s">
+        <v>225</v>
+      </c>
+      <c r="H113" t="s">
+        <v>175</v>
+      </c>
+      <c r="I113" t="s">
+        <v>339</v>
+      </c>
+      <c r="J113" t="s">
+        <v>492</v>
+      </c>
+      <c r="N113" s="2">
+        <v>45065.62755787037</v>
+      </c>
+      <c r="O113" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114">
+        <v>1001656</v>
+      </c>
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" t="s">
+        <v>197</v>
+      </c>
+      <c r="F114" t="s">
+        <v>211</v>
+      </c>
+      <c r="G114" t="s">
+        <v>225</v>
+      </c>
+      <c r="H114" t="s">
+        <v>197</v>
+      </c>
+      <c r="I114" t="s">
+        <v>340</v>
+      </c>
+      <c r="J114" t="s">
+        <v>493</v>
+      </c>
+      <c r="M114" t="s">
+        <v>598</v>
+      </c>
+      <c r="N114" s="2">
+        <v>45065.59350694445</v>
+      </c>
+      <c r="O114" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115">
+        <v>1001655</v>
+      </c>
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" t="s">
+        <v>194</v>
+      </c>
+      <c r="F115" t="s">
+        <v>217</v>
+      </c>
+      <c r="G115" t="s">
+        <v>225</v>
+      </c>
+      <c r="H115" t="s">
+        <v>194</v>
+      </c>
+      <c r="I115" t="s">
+        <v>341</v>
+      </c>
+      <c r="J115" t="s">
+        <v>494</v>
+      </c>
+      <c r="K115" t="s">
+        <v>562</v>
+      </c>
+      <c r="N115" s="2">
+        <v>45065.58027777778</v>
+      </c>
+      <c r="O115" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116">
+        <v>1001654</v>
+      </c>
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" t="s">
+        <v>196</v>
+      </c>
+      <c r="F116" t="s">
+        <v>221</v>
+      </c>
+      <c r="G116" t="s">
+        <v>225</v>
+      </c>
+      <c r="H116" t="s">
+        <v>196</v>
+      </c>
+      <c r="I116" t="s">
+        <v>342</v>
+      </c>
+      <c r="J116" t="s">
+        <v>495</v>
+      </c>
+      <c r="N116" s="2">
+        <v>45065.58001157407</v>
+      </c>
+      <c r="O116" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117">
+        <v>1001644</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" t="s">
+        <v>170</v>
+      </c>
+      <c r="E117" t="s">
+        <v>194</v>
+      </c>
+      <c r="F117" t="s">
+        <v>216</v>
+      </c>
+      <c r="G117" t="s">
+        <v>225</v>
+      </c>
+      <c r="H117" t="s">
+        <v>194</v>
+      </c>
+      <c r="I117" t="s">
+        <v>343</v>
+      </c>
+      <c r="J117" t="s">
+        <v>496</v>
+      </c>
+      <c r="K117" t="s">
+        <v>563</v>
+      </c>
+      <c r="N117" s="2">
+        <v>45064.5660300926</v>
+      </c>
+      <c r="O117" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118">
+        <v>1001643</v>
+      </c>
+      <c r="B118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" t="s">
+        <v>166</v>
+      </c>
+      <c r="D118" t="s">
+        <v>170</v>
+      </c>
+      <c r="E118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F118" t="s">
+        <v>211</v>
+      </c>
+      <c r="G118" t="s">
+        <v>225</v>
+      </c>
+      <c r="H118" t="s">
+        <v>190</v>
+      </c>
+      <c r="I118" t="s">
+        <v>344</v>
+      </c>
+      <c r="J118" t="s">
+        <v>497</v>
+      </c>
+      <c r="K118" t="s">
+        <v>497</v>
+      </c>
+      <c r="N118" s="2">
+        <v>45064.58200231481</v>
+      </c>
+      <c r="O118" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119">
+        <v>1001642</v>
+      </c>
+      <c r="B119" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" t="s">
+        <v>169</v>
+      </c>
+      <c r="E119" t="s">
+        <v>186</v>
+      </c>
+      <c r="F119" t="s">
+        <v>220</v>
+      </c>
+      <c r="G119" t="s">
+        <v>225</v>
+      </c>
+      <c r="H119" t="s">
+        <v>186</v>
+      </c>
+      <c r="I119" t="s">
+        <v>345</v>
+      </c>
+      <c r="J119" t="s">
+        <v>498</v>
+      </c>
+      <c r="N119" s="2">
+        <v>45064.57907407408</v>
+      </c>
+      <c r="O119" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <v>1001640</v>
+      </c>
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" t="s">
+        <v>169</v>
+      </c>
+      <c r="E120" t="s">
+        <v>201</v>
+      </c>
+      <c r="F120" t="s">
+        <v>223</v>
+      </c>
+      <c r="G120" t="s">
+        <v>225</v>
+      </c>
+      <c r="H120" t="s">
+        <v>201</v>
+      </c>
+      <c r="I120" t="s">
+        <v>346</v>
+      </c>
+      <c r="J120" t="s">
+        <v>499</v>
+      </c>
+      <c r="N120" s="2">
+        <v>45064.41478009259</v>
+      </c>
+      <c r="O120" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121">
+        <v>1001639</v>
+      </c>
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121" t="s">
+        <v>175</v>
+      </c>
+      <c r="F121" t="s">
+        <v>217</v>
+      </c>
+      <c r="G121" t="s">
+        <v>225</v>
+      </c>
+      <c r="H121" t="s">
+        <v>175</v>
+      </c>
+      <c r="I121" t="s">
+        <v>347</v>
+      </c>
+      <c r="J121" t="s">
+        <v>500</v>
+      </c>
+      <c r="M121" t="s">
+        <v>591</v>
+      </c>
+      <c r="N121" s="2">
+        <v>45064.40375</v>
+      </c>
+      <c r="O121" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122">
+        <v>1001638</v>
+      </c>
+      <c r="B122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122" t="s">
+        <v>192</v>
+      </c>
+      <c r="F122" t="s">
+        <v>216</v>
+      </c>
+      <c r="G122" t="s">
+        <v>225</v>
+      </c>
+      <c r="H122" t="s">
+        <v>192</v>
+      </c>
+      <c r="I122" t="s">
+        <v>348</v>
+      </c>
+      <c r="J122" t="s">
+        <v>501</v>
+      </c>
+      <c r="K122" t="s">
+        <v>564</v>
+      </c>
+      <c r="N122" s="2">
+        <v>45063.65378472222</v>
+      </c>
+      <c r="O122" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123">
+        <v>1001637</v>
+      </c>
+      <c r="B123" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" t="s">
+        <v>169</v>
+      </c>
+      <c r="E123" t="s">
+        <v>204</v>
+      </c>
+      <c r="F123" t="s">
+        <v>218</v>
+      </c>
+      <c r="G123" t="s">
+        <v>225</v>
+      </c>
+      <c r="H123" t="s">
+        <v>196</v>
+      </c>
+      <c r="I123" t="s">
+        <v>349</v>
+      </c>
+      <c r="J123" t="s">
+        <v>502</v>
+      </c>
+      <c r="N123" s="2">
+        <v>45063.46545138889</v>
+      </c>
+      <c r="O123" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124">
+        <v>1001636</v>
+      </c>
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" t="s">
+        <v>170</v>
+      </c>
+      <c r="E124" t="s">
+        <v>192</v>
+      </c>
+      <c r="F124" t="s">
+        <v>218</v>
+      </c>
+      <c r="G124" t="s">
+        <v>225</v>
+      </c>
+      <c r="H124" t="s">
+        <v>192</v>
+      </c>
+      <c r="I124" t="s">
+        <v>350</v>
+      </c>
+      <c r="J124" t="s">
+        <v>503</v>
+      </c>
+      <c r="K124" t="s">
+        <v>565</v>
+      </c>
+      <c r="N124" s="2">
+        <v>45063.43454861111</v>
+      </c>
+      <c r="O124" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125">
+        <v>1001635</v>
+      </c>
+      <c r="B125" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" t="s">
+        <v>185</v>
+      </c>
+      <c r="F125" t="s">
+        <v>218</v>
+      </c>
+      <c r="G125" t="s">
+        <v>225</v>
+      </c>
+      <c r="H125" t="s">
+        <v>185</v>
+      </c>
+      <c r="I125" t="s">
+        <v>351</v>
+      </c>
+      <c r="J125" t="s">
+        <v>504</v>
+      </c>
+      <c r="K125" t="s">
+        <v>566</v>
+      </c>
+      <c r="N125" s="2">
+        <v>45063.43482638889</v>
+      </c>
+      <c r="O125" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126">
+        <v>1001634</v>
+      </c>
+      <c r="B126" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" t="s">
+        <v>166</v>
+      </c>
+      <c r="D126" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126" t="s">
+        <v>180</v>
+      </c>
+      <c r="F126" t="s">
+        <v>222</v>
+      </c>
+      <c r="G126" t="s">
+        <v>225</v>
+      </c>
+      <c r="H126" t="s">
+        <v>175</v>
+      </c>
+      <c r="I126" t="s">
+        <v>352</v>
+      </c>
+      <c r="J126" t="s">
+        <v>505</v>
+      </c>
+      <c r="N126" s="2">
+        <v>45062.67736111111</v>
+      </c>
+      <c r="O126" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127">
+        <v>1001633</v>
+      </c>
+      <c r="B127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" t="s">
+        <v>166</v>
+      </c>
+      <c r="D127" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" t="s">
+        <v>179</v>
+      </c>
+      <c r="F127" t="s">
+        <v>226</v>
+      </c>
+      <c r="G127" t="s">
+        <v>225</v>
+      </c>
+      <c r="H127" t="s">
+        <v>179</v>
+      </c>
+      <c r="I127" t="s">
+        <v>353</v>
+      </c>
+      <c r="J127" t="s">
+        <v>506</v>
+      </c>
+      <c r="K127" t="s">
+        <v>506</v>
+      </c>
+      <c r="N127" s="2">
+        <v>45062.68188657407</v>
+      </c>
+      <c r="O127" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128">
+        <v>1001632</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" t="s">
+        <v>172</v>
+      </c>
+      <c r="E128" t="s">
+        <v>197</v>
+      </c>
+      <c r="F128" t="s">
+        <v>213</v>
+      </c>
+      <c r="G128" t="s">
+        <v>225</v>
+      </c>
+      <c r="H128" t="s">
+        <v>197</v>
+      </c>
+      <c r="I128" t="s">
+        <v>354</v>
+      </c>
+      <c r="J128" t="s">
+        <v>507</v>
+      </c>
+      <c r="K128" t="s">
+        <v>507</v>
+      </c>
+      <c r="M128" t="s">
+        <v>598</v>
+      </c>
+      <c r="N128" s="2">
+        <v>45062.40429398148</v>
+      </c>
+      <c r="O128" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129">
+        <v>1001631</v>
+      </c>
+      <c r="B129" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" t="s">
+        <v>166</v>
+      </c>
+      <c r="D129" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129" t="s">
+        <v>187</v>
+      </c>
+      <c r="F129" t="s">
+        <v>222</v>
+      </c>
+      <c r="G129" t="s">
+        <v>225</v>
+      </c>
+      <c r="H129" t="s">
+        <v>187</v>
+      </c>
+      <c r="I129" t="s">
+        <v>355</v>
+      </c>
+      <c r="J129" t="s">
+        <v>508</v>
+      </c>
+      <c r="K129" t="s">
+        <v>508</v>
+      </c>
+      <c r="N129" s="2">
+        <v>45062.42518518519</v>
+      </c>
+      <c r="O129" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130">
+        <v>1001630</v>
+      </c>
+      <c r="B130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" t="s">
+        <v>185</v>
+      </c>
+      <c r="F130" t="s">
+        <v>220</v>
+      </c>
+      <c r="G130" t="s">
+        <v>225</v>
+      </c>
+      <c r="H130" t="s">
+        <v>185</v>
+      </c>
+      <c r="I130" t="s">
+        <v>356</v>
+      </c>
+      <c r="J130" t="s">
+        <v>509</v>
+      </c>
+      <c r="K130" t="s">
+        <v>567</v>
+      </c>
+      <c r="N130" s="2">
+        <v>45061.45986111111</v>
+      </c>
+      <c r="O130" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131">
+        <v>1001629</v>
+      </c>
+      <c r="B131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" t="s">
+        <v>169</v>
+      </c>
+      <c r="E131" t="s">
+        <v>175</v>
+      </c>
+      <c r="F131" t="s">
+        <v>217</v>
+      </c>
+      <c r="G131" t="s">
+        <v>225</v>
+      </c>
+      <c r="H131" t="s">
+        <v>175</v>
+      </c>
+      <c r="I131" t="s">
+        <v>357</v>
+      </c>
+      <c r="J131" t="s">
+        <v>510</v>
+      </c>
+      <c r="N131" s="2">
+        <v>45061.44616898148</v>
+      </c>
+      <c r="O131" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132">
+        <v>1001628</v>
+      </c>
+      <c r="B132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" t="s">
+        <v>166</v>
+      </c>
+      <c r="D132" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" t="s">
+        <v>192</v>
+      </c>
+      <c r="F132" t="s">
+        <v>218</v>
+      </c>
+      <c r="G132" t="s">
+        <v>225</v>
+      </c>
+      <c r="H132" t="s">
+        <v>192</v>
+      </c>
+      <c r="I132" t="s">
+        <v>358</v>
+      </c>
+      <c r="J132" t="s">
+        <v>511</v>
+      </c>
+      <c r="K132" t="s">
+        <v>568</v>
+      </c>
+      <c r="L132" t="s">
+        <v>582</v>
+      </c>
+      <c r="M132" t="s">
+        <v>600</v>
+      </c>
+      <c r="N132" s="2">
+        <v>45061.44472222222</v>
+      </c>
+      <c r="O132" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133">
+        <v>1001627</v>
+      </c>
+      <c r="B133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" t="s">
+        <v>166</v>
+      </c>
+      <c r="D133" t="s">
+        <v>170</v>
+      </c>
+      <c r="E133" t="s">
+        <v>179</v>
+      </c>
+      <c r="F133" t="s">
+        <v>216</v>
+      </c>
+      <c r="G133" t="s">
+        <v>225</v>
+      </c>
+      <c r="H133" t="s">
+        <v>179</v>
+      </c>
+      <c r="I133" t="s">
+        <v>359</v>
+      </c>
+      <c r="J133" t="s">
+        <v>512</v>
+      </c>
+      <c r="K133" t="s">
+        <v>569</v>
+      </c>
+      <c r="N133" s="2">
+        <v>45058.72940972223</v>
+      </c>
+      <c r="O133" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134">
+        <v>1001625</v>
+      </c>
+      <c r="B134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" t="s">
+        <v>166</v>
+      </c>
+      <c r="D134" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" t="s">
+        <v>192</v>
+      </c>
+      <c r="F134" t="s">
+        <v>217</v>
+      </c>
+      <c r="G134" t="s">
+        <v>225</v>
+      </c>
+      <c r="H134" t="s">
+        <v>192</v>
+      </c>
+      <c r="I134" t="s">
+        <v>360</v>
+      </c>
+      <c r="J134" t="s">
+        <v>513</v>
+      </c>
+      <c r="K134" t="s">
+        <v>570</v>
+      </c>
+      <c r="N134" s="2">
+        <v>45058.65881944444</v>
+      </c>
+      <c r="O134" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135">
+        <v>1001624</v>
+      </c>
+      <c r="B135" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" t="s">
+        <v>166</v>
+      </c>
+      <c r="D135" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F135" t="s">
+        <v>214</v>
+      </c>
+      <c r="G135" t="s">
+        <v>225</v>
+      </c>
+      <c r="H135" t="s">
+        <v>175</v>
+      </c>
+      <c r="I135" t="s">
+        <v>361</v>
+      </c>
+      <c r="J135" t="s">
+        <v>514</v>
+      </c>
+      <c r="N135" s="2">
+        <v>45058.50084490741</v>
+      </c>
+      <c r="O135" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136">
+        <v>1001623</v>
+      </c>
+      <c r="B136" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" t="s">
+        <v>166</v>
+      </c>
+      <c r="D136" t="s">
+        <v>169</v>
+      </c>
+      <c r="E136" t="s">
+        <v>205</v>
+      </c>
+      <c r="F136" t="s">
+        <v>211</v>
+      </c>
+      <c r="G136" t="s">
+        <v>225</v>
+      </c>
+      <c r="H136" t="s">
+        <v>205</v>
+      </c>
+      <c r="I136" t="s">
+        <v>362</v>
+      </c>
+      <c r="J136" t="s">
+        <v>515</v>
+      </c>
+      <c r="M136" t="s">
+        <v>601</v>
+      </c>
+      <c r="N136" s="2">
+        <v>45058.44287037037</v>
+      </c>
+      <c r="O136" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137">
+        <v>1001620</v>
+      </c>
+      <c r="B137" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" t="s">
+        <v>167</v>
+      </c>
+      <c r="D137" t="s">
+        <v>170</v>
+      </c>
+      <c r="E137" t="s">
+        <v>179</v>
+      </c>
+      <c r="F137" t="s">
+        <v>220</v>
+      </c>
+      <c r="G137" t="s">
+        <v>225</v>
+      </c>
+      <c r="H137" t="s">
+        <v>179</v>
+      </c>
+      <c r="I137" t="s">
+        <v>363</v>
+      </c>
+      <c r="J137" t="s">
+        <v>516</v>
+      </c>
+      <c r="K137" t="s">
+        <v>571</v>
+      </c>
+      <c r="N137" s="2">
+        <v>45057.70120370371</v>
+      </c>
+      <c r="O137" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138">
+        <v>1001618</v>
+      </c>
+      <c r="B138" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" t="s">
+        <v>186</v>
+      </c>
+      <c r="F138" t="s">
+        <v>220</v>
+      </c>
+      <c r="G138" t="s">
+        <v>225</v>
+      </c>
+      <c r="H138" t="s">
+        <v>186</v>
+      </c>
+      <c r="I138" t="s">
+        <v>364</v>
+      </c>
+      <c r="J138" t="s">
+        <v>517</v>
+      </c>
+      <c r="L138" t="s">
+        <v>588</v>
+      </c>
+      <c r="N138" s="2">
+        <v>45057.4255324074</v>
+      </c>
+      <c r="O138" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139">
+        <v>1001617</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" t="s">
+        <v>167</v>
+      </c>
+      <c r="D139" t="s">
+        <v>169</v>
+      </c>
+      <c r="E139" t="s">
+        <v>186</v>
+      </c>
+      <c r="F139" t="s">
+        <v>220</v>
+      </c>
+      <c r="G139" t="s">
+        <v>225</v>
+      </c>
+      <c r="H139" t="s">
+        <v>186</v>
+      </c>
+      <c r="I139" t="s">
+        <v>365</v>
+      </c>
+      <c r="J139" t="s">
+        <v>518</v>
+      </c>
+      <c r="L139" t="s">
+        <v>588</v>
+      </c>
+      <c r="N139" s="2">
+        <v>45057.42482638889</v>
+      </c>
+      <c r="O139" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140">
+        <v>1001616</v>
+      </c>
+      <c r="B140" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" t="s">
+        <v>169</v>
+      </c>
+      <c r="E140" t="s">
+        <v>186</v>
+      </c>
+      <c r="F140" t="s">
+        <v>220</v>
+      </c>
+      <c r="G140" t="s">
+        <v>225</v>
+      </c>
+      <c r="H140" t="s">
+        <v>186</v>
+      </c>
+      <c r="I140" t="s">
+        <v>366</v>
+      </c>
+      <c r="J140" t="s">
+        <v>519</v>
+      </c>
+      <c r="L140" t="s">
+        <v>588</v>
+      </c>
+      <c r="N140" s="2">
+        <v>45057.42402777778</v>
+      </c>
+      <c r="O140" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141">
+        <v>1001615</v>
+      </c>
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" t="s">
+        <v>166</v>
+      </c>
+      <c r="D141" t="s">
+        <v>170</v>
+      </c>
+      <c r="E141" t="s">
+        <v>192</v>
+      </c>
+      <c r="F141" t="s">
+        <v>220</v>
+      </c>
+      <c r="G141" t="s">
+        <v>225</v>
+      </c>
+      <c r="H141" t="s">
+        <v>192</v>
+      </c>
+      <c r="I141" t="s">
+        <v>367</v>
+      </c>
+      <c r="J141" t="s">
+        <v>520</v>
+      </c>
+      <c r="K141" t="s">
+        <v>572</v>
+      </c>
+      <c r="N141" s="2">
+        <v>45056.58553240741</v>
+      </c>
+      <c r="O141" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142">
+        <v>1001614</v>
+      </c>
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
+        <v>166</v>
+      </c>
+      <c r="D142" t="s">
+        <v>169</v>
+      </c>
+      <c r="E142" t="s">
+        <v>175</v>
+      </c>
+      <c r="F142" t="s">
+        <v>212</v>
+      </c>
+      <c r="G142" t="s">
+        <v>225</v>
+      </c>
+      <c r="H142" t="s">
+        <v>175</v>
+      </c>
+      <c r="I142" t="s">
         <v>368</v>
+      </c>
+      <c r="J142" t="s">
+        <v>521</v>
+      </c>
+      <c r="M142" t="s">
+        <v>591</v>
+      </c>
+      <c r="N142" s="2">
+        <v>45056.40484953704</v>
+      </c>
+      <c r="O142" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143">
+        <v>1001613</v>
+      </c>
+      <c r="B143" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" t="s">
+        <v>166</v>
+      </c>
+      <c r="D143" t="s">
+        <v>170</v>
+      </c>
+      <c r="E143" t="s">
+        <v>206</v>
+      </c>
+      <c r="F143" t="s">
+        <v>216</v>
+      </c>
+      <c r="G143" t="s">
+        <v>225</v>
+      </c>
+      <c r="H143" t="s">
+        <v>179</v>
+      </c>
+      <c r="I143" t="s">
+        <v>369</v>
+      </c>
+      <c r="J143" t="s">
+        <v>522</v>
+      </c>
+      <c r="K143" t="s">
+        <v>573</v>
+      </c>
+      <c r="N143" s="2">
+        <v>45055.76005787037</v>
+      </c>
+      <c r="O143" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144">
+        <v>1001612</v>
+      </c>
+      <c r="B144" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144" t="s">
+        <v>170</v>
+      </c>
+      <c r="E144" t="s">
+        <v>207</v>
+      </c>
+      <c r="F144" t="s">
+        <v>211</v>
+      </c>
+      <c r="G144" t="s">
+        <v>225</v>
+      </c>
+      <c r="H144" t="s">
+        <v>179</v>
+      </c>
+      <c r="I144" t="s">
+        <v>370</v>
+      </c>
+      <c r="J144" t="s">
+        <v>523</v>
+      </c>
+      <c r="K144" t="s">
+        <v>574</v>
+      </c>
+      <c r="N144" s="2">
+        <v>45055.71998842592</v>
+      </c>
+      <c r="O144" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145">
+        <v>1001611</v>
+      </c>
+      <c r="B145" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" t="s">
+        <v>166</v>
+      </c>
+      <c r="D145" t="s">
+        <v>170</v>
+      </c>
+      <c r="E145" t="s">
+        <v>179</v>
+      </c>
+      <c r="F145" t="s">
+        <v>216</v>
+      </c>
+      <c r="G145" t="s">
+        <v>225</v>
+      </c>
+      <c r="H145" t="s">
+        <v>179</v>
+      </c>
+      <c r="I145" t="s">
+        <v>371</v>
+      </c>
+      <c r="J145" t="s">
+        <v>524</v>
+      </c>
+      <c r="K145" t="s">
+        <v>575</v>
+      </c>
+      <c r="N145" s="2">
+        <v>45055.75859953704</v>
+      </c>
+      <c r="O145" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146">
+        <v>1001610</v>
+      </c>
+      <c r="B146" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" t="s">
+        <v>166</v>
+      </c>
+      <c r="D146" t="s">
+        <v>169</v>
+      </c>
+      <c r="E146" t="s">
+        <v>208</v>
+      </c>
+      <c r="F146" t="s">
+        <v>214</v>
+      </c>
+      <c r="G146" t="s">
+        <v>225</v>
+      </c>
+      <c r="H146" t="s">
+        <v>175</v>
+      </c>
+      <c r="I146" t="s">
+        <v>372</v>
+      </c>
+      <c r="J146" t="s">
+        <v>525</v>
+      </c>
+      <c r="N146" s="2">
+        <v>45055.67258101852</v>
+      </c>
+      <c r="O146" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147">
+        <v>1001609</v>
+      </c>
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" t="s">
+        <v>166</v>
+      </c>
+      <c r="D147" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" t="s">
+        <v>182</v>
+      </c>
+      <c r="F147" t="s">
+        <v>216</v>
+      </c>
+      <c r="G147" t="s">
+        <v>225</v>
+      </c>
+      <c r="H147" t="s">
+        <v>182</v>
+      </c>
+      <c r="I147" t="s">
+        <v>373</v>
+      </c>
+      <c r="J147" t="s">
+        <v>526</v>
+      </c>
+      <c r="N147" s="2">
+        <v>45056.57302083333</v>
+      </c>
+      <c r="O147" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148">
+        <v>1001607</v>
+      </c>
+      <c r="B148" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" t="s">
+        <v>170</v>
+      </c>
+      <c r="E148" t="s">
+        <v>209</v>
+      </c>
+      <c r="F148" t="s">
+        <v>219</v>
+      </c>
+      <c r="G148" t="s">
+        <v>225</v>
+      </c>
+      <c r="H148" t="s">
+        <v>197</v>
+      </c>
+      <c r="I148" t="s">
+        <v>374</v>
+      </c>
+      <c r="J148" t="s">
+        <v>527</v>
+      </c>
+      <c r="K148" t="s">
+        <v>527</v>
+      </c>
+      <c r="L148" t="s">
+        <v>580</v>
+      </c>
+      <c r="M148" t="s">
+        <v>598</v>
+      </c>
+      <c r="N148" s="2">
+        <v>45055.60974537037</v>
+      </c>
+      <c r="O148" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149">
+        <v>1001605</v>
+      </c>
+      <c r="B149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" t="s">
+        <v>166</v>
+      </c>
+      <c r="D149" t="s">
+        <v>170</v>
+      </c>
+      <c r="E149" t="s">
+        <v>179</v>
+      </c>
+      <c r="F149" t="s">
+        <v>211</v>
+      </c>
+      <c r="G149" t="s">
+        <v>225</v>
+      </c>
+      <c r="H149" t="s">
+        <v>179</v>
+      </c>
+      <c r="I149" t="s">
+        <v>375</v>
+      </c>
+      <c r="J149" t="s">
+        <v>528</v>
+      </c>
+      <c r="K149" t="s">
+        <v>576</v>
+      </c>
+      <c r="L149" t="s">
+        <v>580</v>
+      </c>
+      <c r="N149" s="2">
+        <v>45055.54673611111</v>
+      </c>
+      <c r="O149" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150">
+        <v>1001604</v>
+      </c>
+      <c r="B150" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" t="s">
+        <v>166</v>
+      </c>
+      <c r="D150" t="s">
+        <v>169</v>
+      </c>
+      <c r="E150" t="s">
+        <v>210</v>
+      </c>
+      <c r="F150" t="s">
+        <v>216</v>
+      </c>
+      <c r="G150" t="s">
+        <v>225</v>
+      </c>
+      <c r="H150" t="s">
+        <v>185</v>
+      </c>
+      <c r="I150" t="s">
+        <v>376</v>
+      </c>
+      <c r="J150" t="s">
+        <v>529</v>
+      </c>
+      <c r="N150" s="2">
+        <v>45055.67201388889</v>
+      </c>
+      <c r="O150" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151">
+        <v>1001603</v>
+      </c>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151" t="s">
+        <v>169</v>
+      </c>
+      <c r="E151" t="s">
+        <v>208</v>
+      </c>
+      <c r="F151" t="s">
+        <v>219</v>
+      </c>
+      <c r="G151" t="s">
+        <v>225</v>
+      </c>
+      <c r="H151" t="s">
+        <v>175</v>
+      </c>
+      <c r="I151" t="s">
+        <v>377</v>
+      </c>
+      <c r="J151" t="s">
+        <v>530</v>
+      </c>
+      <c r="N151" s="2">
+        <v>45055.58100694444</v>
+      </c>
+      <c r="O151" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152">
+        <v>1001602</v>
+      </c>
+      <c r="B152" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D152" t="s">
+        <v>170</v>
+      </c>
+      <c r="E152" t="s">
+        <v>194</v>
+      </c>
+      <c r="F152" t="s">
+        <v>216</v>
+      </c>
+      <c r="G152" t="s">
+        <v>225</v>
+      </c>
+      <c r="H152" t="s">
+        <v>194</v>
+      </c>
+      <c r="I152" t="s">
+        <v>378</v>
+      </c>
+      <c r="J152" t="s">
+        <v>531</v>
+      </c>
+      <c r="K152" t="s">
+        <v>577</v>
+      </c>
+      <c r="N152" s="2">
+        <v>45055.43046296296</v>
+      </c>
+      <c r="O152" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153">
+        <v>1001601</v>
+      </c>
+      <c r="B153" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" t="s">
+        <v>170</v>
+      </c>
+      <c r="E153" t="s">
+        <v>210</v>
+      </c>
+      <c r="F153" t="s">
+        <v>212</v>
+      </c>
+      <c r="G153" t="s">
+        <v>225</v>
+      </c>
+      <c r="H153" t="s">
+        <v>185</v>
+      </c>
+      <c r="I153" t="s">
+        <v>379</v>
+      </c>
+      <c r="J153" t="s">
+        <v>532</v>
+      </c>
+      <c r="K153" t="s">
+        <v>532</v>
+      </c>
+      <c r="N153" s="2">
+        <v>45055.43127314815</v>
+      </c>
+      <c r="O153" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154">
+        <v>1001600</v>
+      </c>
+      <c r="B154" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" t="s">
+        <v>166</v>
+      </c>
+      <c r="D154" t="s">
+        <v>170</v>
+      </c>
+      <c r="E154" t="s">
+        <v>185</v>
+      </c>
+      <c r="F154" t="s">
+        <v>220</v>
+      </c>
+      <c r="G154" t="s">
+        <v>225</v>
+      </c>
+      <c r="H154" t="s">
+        <v>185</v>
+      </c>
+      <c r="I154" t="s">
+        <v>380</v>
+      </c>
+      <c r="J154" t="s">
+        <v>533</v>
+      </c>
+      <c r="K154" t="s">
+        <v>578</v>
+      </c>
+      <c r="N154" s="2">
+        <v>45054.7434375</v>
+      </c>
+      <c r="O154" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/output_raw.xlsx
+++ b/output_raw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -53,12 +53,195 @@
   </si>
   <si>
     <t>完成时间</t>
+  </si>
+  <si>
+    <t>响应时刻</t>
+  </si>
+  <si>
+    <t>完成时刻</t>
+  </si>
+  <si>
+    <t>响应时刻_str</t>
+  </si>
+  <si>
+    <t>Case-TJIBSBOS2301810 合同点价期货价格错误，帮忙退回</t>
+  </si>
+  <si>
+    <t>Case-北京丰海嘉业点价申请单PR202307030900078720撤回到待成交状态</t>
+  </si>
+  <si>
+    <t>Case-航海家未生效的合同未传输到LINKAGE系统</t>
+  </si>
+  <si>
+    <t>Case-退回待审核</t>
+  </si>
+  <si>
+    <t>Case-新增付款代码：5% after pricing within 1 working day, 95% after delivery within 5 days</t>
+  </si>
+  <si>
+    <t>Case-天津淦海TJIBSBMP2300052-006采购合同LKG未关联</t>
+  </si>
+  <si>
+    <t>Case-A签审批中心页面突然清空</t>
+  </si>
+  <si>
+    <t>Case-中金合同有一个未关联到LKG</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>LDC确认中</t>
+  </si>
+  <si>
+    <t>关闭（已处理）</t>
+  </si>
+  <si>
+    <t>帝洁</t>
+  </si>
+  <si>
+    <t>沈羽</t>
+  </si>
+  <si>
+    <t>语淇</t>
+  </si>
+  <si>
+    <t>运维支持_胡培军</t>
+  </si>
+  <si>
+    <t>刘晓彤</t>
+  </si>
+  <si>
+    <t>生产Case &gt; 运维诉求 &gt; 数据处理 &gt; 操作问题 &gt; 增改删业务数据(LDC)</t>
+  </si>
+  <si>
+    <t>生产Case &gt; 易企签/LKG问题</t>
+  </si>
+  <si>
+    <t>生产Case &gt; 运维诉求 &gt; 数据处理 &gt; LKG问题</t>
+  </si>
+  <si>
+    <t>生产Case &gt; 运维诉求 &gt; 数据处理 &gt; 操作问题 &gt; 增改删业务数据(NAV)</t>
+  </si>
+  <si>
+    <t>生产Case &gt; BUG</t>
+  </si>
+  <si>
+    <t>生产Case</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>2023-07-03 13:47:40</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:45:16</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:48:45</t>
+  </si>
+  <si>
+    <t>2023-06-30 18:08:43</t>
+  </si>
+  <si>
+    <t>2023-06-30 16:03:37</t>
+  </si>
+  <si>
+    <t>2023-06-30 13:27:29</t>
+  </si>
+  <si>
+    <t>2023-06-30 13:20:42</t>
+  </si>
+  <si>
+    <t>2023-06-30 11:25:05</t>
+  </si>
+  <si>
+    <t>2023-07-03 17:27:14</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:36:54</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:21:47</t>
+  </si>
+  <si>
+    <t>2023-07-20 10:22:54</t>
+  </si>
+  <si>
+    <t>2023-06-30 18:35:53</t>
+  </si>
+  <si>
+    <t>2023-06-30 18:42:57</t>
+  </si>
+  <si>
+    <t>2023-06-30 18:44:50</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:46:51</t>
+  </si>
+  <si>
+    <t>LKG接口</t>
+  </si>
+  <si>
+    <t>刘晓彤;</t>
+  </si>
+  <si>
+    <t>沈羽;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-03 17:17:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-03 11:36:10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-03 09:59:24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-30 18:16:56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-30 18:35:53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-30 18:42:35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-30 18:44:50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-03 15:46:51 </t>
+  </si>
+  <si>
+    <t>2023-07-03 13:50:12</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:32:20</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:59:24</t>
+  </si>
+  <si>
+    <t>2023-06-30 18:11:07</t>
+  </si>
+  <si>
+    <t>2023-06-30 18:35:45</t>
+  </si>
+  <si>
+    <t>2023-06-30 13:36:57</t>
+  </si>
+  <si>
+    <t>2023-06-30 11:50:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -111,11 +294,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,51 +594,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>1001816</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>45110.57652777778</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>1001814</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="2">
+        <v>45110.48078703704</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>94</v>
+      </c>
+      <c r="B4">
+        <v>1001813</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45110.41625</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>1001812</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45107.75771990741</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>1001811</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45107.77482638889</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>1001810</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45107.56732638889</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>1001809</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="2">
+        <v>45107.78113425926</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>1001808</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="2">
+        <v>45107.49305555555</v>
+      </c>
+      <c r="P9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/output_raw.xlsx
+++ b/output_raw.xlsx
@@ -5402,4 +5402,264 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100572779039942754A9224B588C3B1C098" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb95df8199dc4e794ecf8b94009377a4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18f9414c-abae-42e0-99a8-e64357ee6571" xmlns:ns3="44591b31-bf30-4ebb-aba4-12610cac5ed3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="165b9258c34c4689f243a27732786f57" ns2:_="" ns3:_="">
+    <xsd:import namespace="18f9414c-abae-42e0-99a8-e64357ee6571"/>
+    <xsd:import namespace="44591b31-bf30-4ebb-aba4-12610cac5ed3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="18f9414c-abae-42e0-99a8-e64357ee6571" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6b0e9680-8da3-4b8d-b9d5-0aa7c668e843" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="44591b31-bf30-4ebb-aba4-12610cac5ed3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{79bf5c6b-bacb-453c-9fd5-15af32b9c3dc}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="44591b31-bf30-4ebb-aba4-12610cac5ed3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A30DED-4B19-42FC-94E2-F16A825CFB18}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE5E51B-FCB4-49A9-B50C-32C6761AFA87}"/>
 </file>